--- a/gd/Demo/Demo副本设计.xlsx
+++ b/gd/Demo/Demo副本设计.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="135" windowWidth="21180" windowHeight="11730"/>
+    <workbookView xWindow="240" yWindow="135" windowWidth="21180" windowHeight="11730" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="封面" sheetId="5" r:id="rId1"/>
@@ -18,19 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="392" uniqueCount="206">
-  <si>
-    <t>对局1</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>对局2</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>对局3</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="356" uniqueCount="200">
   <si>
     <t>胜利条件</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -92,23 +80,11 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>Demo_LV1_01</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>出现怪物</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>己方伙伴全部死亡</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Demo_LV1_02</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>消灭所有神经汪后进程2结束，同时对局结束</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -370,42 +346,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>朱厌</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>青鸟</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>2号站位青鸟，消灭后再次出现一只青鸟，共3只</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>消灭所有怪物后进程1结束，同时对局结束</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>消灭所有怪物</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>耳鼠</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>一号站位朱厌，消灭后再次出现一只朱厌，共3只</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>二号站位耳鼠，消灭后不再出现怪物</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>三号站位青鸟，消灭后再次出现一只青鸟，共3只</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>白泽or混沌or玄武or九尾狐</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -518,10 +458,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>1号站位朱厌，消灭后再次出现一只朱厌，共3只</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>Demo_01</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -822,6 +758,46 @@
   </si>
   <si>
     <t>补充了boss的弱点位置以及开局提示、攻破弱点提示</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>去除对局内容部分，标明参战怪物数量</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>boss局</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>出现怪物</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>对应数量</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>对局波数</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>青鸟</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>朱厌</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>耳鼠</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>小怪局</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>消灭每波怪物</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -3126,8 +3102,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
@@ -3139,10 +3115,10 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" s="9" t="s">
-        <v>134</v>
+        <v>118</v>
       </c>
       <c r="B1" s="10" t="s">
-        <v>156</v>
+        <v>140</v>
       </c>
       <c r="C1" s="11"/>
       <c r="D1" s="11"/>
@@ -3167,10 +3143,10 @@
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="9" t="s">
-        <v>135</v>
+        <v>119</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>157</v>
+        <v>141</v>
       </c>
       <c r="C3" s="11"/>
       <c r="D3" s="11"/>
@@ -3195,7 +3171,7 @@
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="9" t="s">
-        <v>136</v>
+        <v>120</v>
       </c>
       <c r="B5" s="10"/>
       <c r="C5" s="11"/>
@@ -3221,7 +3197,7 @@
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="9" t="s">
-        <v>137</v>
+        <v>121</v>
       </c>
       <c r="B7" s="10"/>
       <c r="C7" s="13"/>
@@ -3247,28 +3223,28 @@
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="9" t="s">
-        <v>138</v>
+        <v>122</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>139</v>
+        <v>123</v>
       </c>
       <c r="C9" s="11" t="s">
-        <v>140</v>
+        <v>124</v>
       </c>
       <c r="D9" s="11" t="s">
-        <v>141</v>
+        <v>125</v>
       </c>
       <c r="E9" s="11" t="s">
-        <v>142</v>
+        <v>126</v>
       </c>
       <c r="F9" s="11" t="s">
-        <v>143</v>
+        <v>127</v>
       </c>
       <c r="G9" s="11" t="s">
-        <v>144</v>
+        <v>128</v>
       </c>
       <c r="H9" s="11" t="s">
-        <v>145</v>
+        <v>129</v>
       </c>
       <c r="I9" s="10"/>
       <c r="J9" s="10"/>
@@ -3288,23 +3264,23 @@
     <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="9"/>
       <c r="B11" s="10" t="s">
-        <v>146</v>
+        <v>130</v>
       </c>
       <c r="C11" s="14">
         <v>42087</v>
       </c>
       <c r="D11" s="11" t="s">
-        <v>147</v>
+        <v>131</v>
       </c>
       <c r="E11" s="11" t="s">
-        <v>148</v>
+        <v>132</v>
       </c>
       <c r="F11" s="11" t="s">
-        <v>149</v>
+        <v>133</v>
       </c>
       <c r="G11" s="11"/>
       <c r="H11" s="10" t="s">
-        <v>150</v>
+        <v>134</v>
       </c>
       <c r="I11" s="10"/>
       <c r="J11" s="10"/>
@@ -3312,22 +3288,22 @@
     <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" s="9"/>
       <c r="B12" s="10" t="s">
-        <v>158</v>
+        <v>142</v>
       </c>
       <c r="C12" s="14">
         <v>42090</v>
       </c>
       <c r="D12" s="11" t="s">
-        <v>147</v>
+        <v>131</v>
       </c>
       <c r="E12" s="11" t="s">
-        <v>148</v>
+        <v>132</v>
       </c>
       <c r="G12" s="11" t="s">
-        <v>149</v>
+        <v>133</v>
       </c>
       <c r="H12" s="10" t="s">
-        <v>159</v>
+        <v>143</v>
       </c>
       <c r="I12" s="10"/>
       <c r="J12" s="10"/>
@@ -3341,7 +3317,7 @@
       <c r="E13" s="11"/>
       <c r="G13" s="11"/>
       <c r="H13" s="10" t="s">
-        <v>160</v>
+        <v>144</v>
       </c>
       <c r="I13" s="10"/>
       <c r="J13" s="10"/>
@@ -3355,7 +3331,7 @@
       <c r="E14" s="11"/>
       <c r="G14" s="11"/>
       <c r="H14" s="10" t="s">
-        <v>181</v>
+        <v>165</v>
       </c>
       <c r="I14" s="10"/>
       <c r="J14" s="10"/>
@@ -3370,7 +3346,7 @@
       <c r="F15" s="11"/>
       <c r="G15" s="10"/>
       <c r="H15" s="10" t="s">
-        <v>205</v>
+        <v>189</v>
       </c>
       <c r="I15" s="10"/>
       <c r="J15" s="10"/>
@@ -3384,7 +3360,9 @@
       <c r="E16" s="15"/>
       <c r="F16" s="11"/>
       <c r="G16" s="10"/>
-      <c r="H16" s="10"/>
+      <c r="H16" s="10" t="s">
+        <v>190</v>
+      </c>
       <c r="I16" s="10"/>
       <c r="J16" s="10"/>
       <c r="K16" s="16"/>
@@ -3404,24 +3382,24 @@
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" s="9" t="s">
-        <v>151</v>
+        <v>135</v>
       </c>
       <c r="B18" s="10" t="s">
-        <v>139</v>
+        <v>123</v>
       </c>
       <c r="C18" s="11" t="s">
-        <v>152</v>
+        <v>136</v>
       </c>
       <c r="D18" s="11" t="s">
-        <v>153</v>
+        <v>137</v>
       </c>
       <c r="E18" s="11" t="s">
-        <v>154</v>
+        <v>138</v>
       </c>
       <c r="F18" s="11"/>
       <c r="G18" s="10"/>
       <c r="H18" s="10" t="s">
-        <v>155</v>
+        <v>139</v>
       </c>
       <c r="I18" s="10"/>
       <c r="J18" s="10"/>
@@ -3448,36 +3426,36 @@
   <sheetData>
     <row r="3" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B3" s="1" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B6" s="1" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>126</v>
+        <v>110</v>
       </c>
     </row>
     <row r="9" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B9" s="1" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="10" spans="2:3" x14ac:dyDescent="0.3">
       <c r="C10" s="1" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="12" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B12" s="1" t="s">
-        <v>161</v>
+        <v>145</v>
       </c>
     </row>
   </sheetData>
@@ -3507,10 +3485,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:E64"/>
+  <dimension ref="B2:F37"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="E46" sqref="E46"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3518,332 +3496,179 @@
     <col min="1" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B2" s="1" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="3" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="C3" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="4" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="C4" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="D4" s="1">
+        <v>2</v>
+      </c>
+      <c r="E4" s="1">
+        <v>2</v>
+      </c>
+      <c r="F4" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="C5" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="D5" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="C7" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="3" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="C3" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D3" s="1">
+      <c r="D7" s="1" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="8" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="C8" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="C4" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="5" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="D5" s="1" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="6" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="C6" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="7" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="D7" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="8" spans="2:5" x14ac:dyDescent="0.3">
       <c r="D8" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="E8" s="1" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="9" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="E9" s="1" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="10" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="E10" s="1" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="11" spans="2:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="10" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B10" s="1" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="11" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="C11" s="1" t="s">
+        <v>8</v>
+      </c>
       <c r="D11" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="12" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="C12" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E11" s="1" t="s">
+      <c r="D12" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="C13" s="1" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="13" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="C13" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="14" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="D14" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="15" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="D13" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="15" spans="2:6" x14ac:dyDescent="0.3">
       <c r="C15" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="16" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="C16" s="1" t="s">
-        <v>4</v>
-      </c>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16" spans="2:6" x14ac:dyDescent="0.3">
       <c r="D16" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B18" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C18" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="17" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="D17" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="18" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="E18" s="1" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="19" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="D19" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="21" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="D21" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D18" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="C19" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D19" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="C20" s="1" t="s">
+      <c r="E21" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="23" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C23" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D20" s="1" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="21" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="D21" s="1" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="22" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="D22" s="1" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="23" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="C23" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="24" spans="2:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="24" spans="3:5" x14ac:dyDescent="0.3">
       <c r="D24" s="1" t="s">
         <v>13</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="25" spans="2:5" x14ac:dyDescent="0.3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="25" spans="3:5" x14ac:dyDescent="0.3">
       <c r="D25" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="26" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C26" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="27" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C27" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D27" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="E25" s="1" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="26" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="E26" s="1" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="27" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="E27" s="1" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="28" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="E28" s="1" t="s">
+    </row>
+    <row r="36" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C36" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="37" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C37" s="1" t="s">
         <v>22</v>
-      </c>
-    </row>
-    <row r="30" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="D30" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E30" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="32" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="C32" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="33" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="D33" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E33" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="34" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="C34" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D34" s="1" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="35" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="C35" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D35" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="37" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B37" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="38" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="C38" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D38" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="39" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="C39" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D39" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="40" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="C40" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D40" s="1" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="42" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="C42" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="43" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="D43" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E43" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="44" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="D44" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E44" s="1" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="45" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="E45" s="1" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="46" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="D46" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="E46" s="1" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="48" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="D48" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E48" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="50" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C50" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="51" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="D51" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E51" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="52" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="D52" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="E52" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="53" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C53" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D53" s="1" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="54" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C54" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D54" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="63" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C63" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="64" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C64" s="1" t="s">
-        <v>28</v>
       </c>
     </row>
   </sheetData>
@@ -3874,20 +3699,20 @@
   <sheetData>
     <row r="2" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B2" s="1" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
     </row>
     <row r="3" spans="2:16" x14ac:dyDescent="0.3">
       <c r="C3" s="2" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
     </row>
     <row r="4" spans="2:16" x14ac:dyDescent="0.3">
       <c r="C4" s="2" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="D4" s="1">
         <v>1</v>
@@ -3895,38 +3720,38 @@
     </row>
     <row r="5" spans="2:16" x14ac:dyDescent="0.3">
       <c r="C5" s="2" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
     </row>
     <row r="6" spans="2:16" x14ac:dyDescent="0.3">
       <c r="C6" s="2" t="s">
-        <v>120</v>
+        <v>105</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>121</v>
+        <v>106</v>
       </c>
     </row>
     <row r="7" spans="2:16" x14ac:dyDescent="0.3">
       <c r="C7" s="2" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
     </row>
     <row r="8" spans="2:16" x14ac:dyDescent="0.3">
       <c r="C8" s="2"/>
       <c r="D8" s="3" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="G8" s="20" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="H8" s="21"/>
       <c r="I8" s="21"/>
@@ -3935,26 +3760,26 @@
       <c r="L8" s="21"/>
       <c r="M8" s="22"/>
       <c r="N8" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="O8" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="O8" s="3" t="s">
-        <v>47</v>
-      </c>
       <c r="P8" s="4" t="s">
-        <v>162</v>
+        <v>146</v>
       </c>
     </row>
     <row r="9" spans="2:16" x14ac:dyDescent="0.3">
       <c r="C9" s="2"/>
       <c r="D9" s="4" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="F9" s="4"/>
       <c r="G9" s="17" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="H9" s="18"/>
       <c r="I9" s="18"/>
@@ -3965,20 +3790,20 @@
       <c r="N9" s="4"/>
       <c r="O9" s="4"/>
       <c r="P9" s="4" t="s">
-        <v>164</v>
+        <v>148</v>
       </c>
     </row>
     <row r="10" spans="2:16" x14ac:dyDescent="0.3">
       <c r="C10" s="2"/>
       <c r="D10" s="4" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="F10" s="4"/>
       <c r="G10" s="17" t="s">
-        <v>163</v>
+        <v>147</v>
       </c>
       <c r="H10" s="18"/>
       <c r="I10" s="18"/>
@@ -3989,20 +3814,20 @@
       <c r="N10" s="4"/>
       <c r="O10" s="4"/>
       <c r="P10" s="4" t="s">
-        <v>165</v>
+        <v>149</v>
       </c>
     </row>
     <row r="11" spans="2:16" x14ac:dyDescent="0.3">
       <c r="C11" s="2"/>
       <c r="D11" s="4" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="F11" s="4"/>
       <c r="G11" s="17" t="s">
-        <v>178</v>
+        <v>162</v>
       </c>
       <c r="H11" s="18"/>
       <c r="I11" s="18"/>
@@ -4011,26 +3836,26 @@
       <c r="L11" s="18"/>
       <c r="M11" s="19"/>
       <c r="N11" s="4" t="s">
-        <v>179</v>
+        <v>163</v>
       </c>
       <c r="O11" s="4" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="P11" s="4" t="s">
-        <v>164</v>
+        <v>148</v>
       </c>
     </row>
     <row r="12" spans="2:16" x14ac:dyDescent="0.3">
       <c r="C12" s="2"/>
       <c r="D12" s="4" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="F12" s="4"/>
       <c r="G12" s="17" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="H12" s="18"/>
       <c r="I12" s="18"/>
@@ -4041,20 +3866,20 @@
       <c r="N12" s="4"/>
       <c r="O12" s="4"/>
       <c r="P12" s="4" t="s">
-        <v>166</v>
+        <v>150</v>
       </c>
     </row>
     <row r="13" spans="2:16" x14ac:dyDescent="0.3">
       <c r="C13" s="2"/>
       <c r="D13" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="E13" s="5" t="s">
         <v>32</v>
-      </c>
-      <c r="E13" s="5" t="s">
-        <v>38</v>
       </c>
       <c r="F13" s="4"/>
       <c r="G13" s="17" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="H13" s="18"/>
       <c r="I13" s="18"/>
@@ -4065,25 +3890,25 @@
       <c r="N13" s="4"/>
       <c r="O13" s="4"/>
       <c r="P13" s="4" t="s">
-        <v>167</v>
+        <v>151</v>
       </c>
     </row>
     <row r="16" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B16" s="1" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
     </row>
     <row r="17" spans="2:16" x14ac:dyDescent="0.3">
       <c r="C17" s="2" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
     </row>
     <row r="18" spans="2:16" x14ac:dyDescent="0.3">
       <c r="C18" s="2" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="D18" s="1">
         <v>1</v>
@@ -4091,38 +3916,38 @@
     </row>
     <row r="19" spans="2:16" x14ac:dyDescent="0.3">
       <c r="C19" s="2" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
     </row>
     <row r="20" spans="2:16" x14ac:dyDescent="0.3">
       <c r="C20" s="2" t="s">
-        <v>120</v>
+        <v>105</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>124</v>
+        <v>109</v>
       </c>
     </row>
     <row r="21" spans="2:16" x14ac:dyDescent="0.3">
       <c r="C21" s="2" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
     </row>
     <row r="22" spans="2:16" x14ac:dyDescent="0.3">
       <c r="C22" s="2"/>
       <c r="D22" s="3" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="G22" s="20" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="H22" s="21"/>
       <c r="I22" s="21"/>
@@ -4131,26 +3956,26 @@
       <c r="L22" s="21"/>
       <c r="M22" s="22"/>
       <c r="N22" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="O22" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="O22" s="3" t="s">
-        <v>47</v>
-      </c>
       <c r="P22" s="4" t="s">
-        <v>162</v>
+        <v>146</v>
       </c>
     </row>
     <row r="23" spans="2:16" x14ac:dyDescent="0.3">
       <c r="C23" s="2"/>
       <c r="D23" s="4" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="E23" s="4" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="F23" s="4"/>
       <c r="G23" s="17" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="H23" s="18"/>
       <c r="I23" s="18"/>
@@ -4161,20 +3986,20 @@
       <c r="N23" s="4"/>
       <c r="O23" s="4"/>
       <c r="P23" s="4" t="s">
-        <v>164</v>
+        <v>148</v>
       </c>
     </row>
     <row r="24" spans="2:16" x14ac:dyDescent="0.3">
       <c r="C24" s="2"/>
       <c r="D24" s="4" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="E24" s="4" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="F24" s="4"/>
       <c r="G24" s="17" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="H24" s="18"/>
       <c r="I24" s="18"/>
@@ -4185,20 +4010,20 @@
       <c r="N24" s="4"/>
       <c r="O24" s="4"/>
       <c r="P24" s="4" t="s">
-        <v>172</v>
+        <v>156</v>
       </c>
     </row>
     <row r="25" spans="2:16" x14ac:dyDescent="0.3">
       <c r="C25" s="2"/>
       <c r="D25" s="4" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="E25" s="5" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="F25" s="4"/>
       <c r="G25" s="17" t="s">
-        <v>177</v>
+        <v>161</v>
       </c>
       <c r="H25" s="18"/>
       <c r="I25" s="18"/>
@@ -4207,26 +4032,26 @@
       <c r="L25" s="18"/>
       <c r="M25" s="19"/>
       <c r="N25" s="4" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="O25" s="4" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="P25" s="4" t="s">
-        <v>164</v>
+        <v>148</v>
       </c>
     </row>
     <row r="26" spans="2:16" x14ac:dyDescent="0.3">
       <c r="C26" s="2"/>
       <c r="D26" s="4" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="E26" s="4" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="F26" s="4"/>
       <c r="G26" s="23" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="H26" s="24"/>
       <c r="I26" s="24"/>
@@ -4237,20 +4062,20 @@
       <c r="N26" s="4"/>
       <c r="O26" s="4"/>
       <c r="P26" s="4" t="s">
-        <v>164</v>
+        <v>148</v>
       </c>
     </row>
     <row r="27" spans="2:16" x14ac:dyDescent="0.3">
       <c r="C27" s="2"/>
       <c r="D27" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="E27" s="5" t="s">
         <v>32</v>
-      </c>
-      <c r="E27" s="5" t="s">
-        <v>38</v>
       </c>
       <c r="F27" s="4"/>
       <c r="G27" s="17" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="H27" s="18"/>
       <c r="I27" s="18"/>
@@ -4261,7 +4086,7 @@
       <c r="N27" s="4"/>
       <c r="O27" s="4"/>
       <c r="P27" s="4" t="s">
-        <v>167</v>
+        <v>151</v>
       </c>
     </row>
     <row r="28" spans="2:16" x14ac:dyDescent="0.3">
@@ -4269,20 +4094,20 @@
     </row>
     <row r="29" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B29" s="1" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
     </row>
     <row r="30" spans="2:16" x14ac:dyDescent="0.3">
       <c r="C30" s="2" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>127</v>
+        <v>111</v>
       </c>
     </row>
     <row r="31" spans="2:16" x14ac:dyDescent="0.3">
       <c r="C31" s="2" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="D31" s="1">
         <v>1</v>
@@ -4290,38 +4115,38 @@
     </row>
     <row r="32" spans="2:16" x14ac:dyDescent="0.3">
       <c r="C32" s="2" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
     </row>
     <row r="33" spans="2:16" x14ac:dyDescent="0.3">
       <c r="C33" s="2" t="s">
-        <v>120</v>
+        <v>105</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>122</v>
+        <v>107</v>
       </c>
     </row>
     <row r="34" spans="2:16" x14ac:dyDescent="0.3">
       <c r="C34" s="2" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
     </row>
     <row r="35" spans="2:16" x14ac:dyDescent="0.3">
       <c r="C35" s="2"/>
       <c r="D35" s="3" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="E35" s="3" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="F35" s="3" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="G35" s="20" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="H35" s="21"/>
       <c r="I35" s="21"/>
@@ -4330,26 +4155,26 @@
       <c r="L35" s="21"/>
       <c r="M35" s="22"/>
       <c r="N35" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="O35" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="O35" s="3" t="s">
-        <v>47</v>
-      </c>
       <c r="P35" s="4" t="s">
-        <v>162</v>
+        <v>146</v>
       </c>
     </row>
     <row r="36" spans="2:16" x14ac:dyDescent="0.3">
       <c r="C36" s="2"/>
       <c r="D36" s="4" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="E36" s="4" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="F36" s="4"/>
       <c r="G36" s="17" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="H36" s="18"/>
       <c r="I36" s="18"/>
@@ -4360,20 +4185,20 @@
       <c r="N36" s="4"/>
       <c r="O36" s="4"/>
       <c r="P36" s="4" t="s">
-        <v>164</v>
+        <v>148</v>
       </c>
     </row>
     <row r="37" spans="2:16" x14ac:dyDescent="0.3">
       <c r="C37" s="2"/>
       <c r="D37" s="4" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="E37" s="4" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="F37" s="4"/>
       <c r="G37" s="17" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="H37" s="18"/>
       <c r="I37" s="18"/>
@@ -4384,20 +4209,20 @@
       <c r="N37" s="4"/>
       <c r="O37" s="4"/>
       <c r="P37" s="4" t="s">
-        <v>164</v>
+        <v>148</v>
       </c>
     </row>
     <row r="38" spans="2:16" x14ac:dyDescent="0.3">
       <c r="C38" s="2"/>
       <c r="D38" s="4" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="E38" s="5" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="F38" s="4"/>
       <c r="G38" s="17" t="s">
-        <v>176</v>
+        <v>160</v>
       </c>
       <c r="H38" s="18"/>
       <c r="I38" s="18"/>
@@ -4406,26 +4231,26 @@
       <c r="L38" s="18"/>
       <c r="M38" s="19"/>
       <c r="N38" s="4" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="O38" s="4" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="P38" s="4" t="s">
-        <v>167</v>
+        <v>151</v>
       </c>
     </row>
     <row r="39" spans="2:16" x14ac:dyDescent="0.3">
       <c r="C39" s="2"/>
       <c r="D39" s="4" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="E39" s="4" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="F39" s="4"/>
       <c r="G39" s="23" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="H39" s="24"/>
       <c r="I39" s="24"/>
@@ -4436,20 +4261,20 @@
       <c r="N39" s="4"/>
       <c r="O39" s="4"/>
       <c r="P39" s="4" t="s">
-        <v>164</v>
+        <v>148</v>
       </c>
     </row>
     <row r="40" spans="2:16" x14ac:dyDescent="0.3">
       <c r="C40" s="2"/>
       <c r="D40" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="E40" s="5" t="s">
         <v>32</v>
-      </c>
-      <c r="E40" s="5" t="s">
-        <v>38</v>
       </c>
       <c r="F40" s="4"/>
       <c r="G40" s="17" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="H40" s="18"/>
       <c r="I40" s="18"/>
@@ -4460,7 +4285,7 @@
       <c r="N40" s="4"/>
       <c r="O40" s="4"/>
       <c r="P40" s="4" t="s">
-        <v>167</v>
+        <v>151</v>
       </c>
     </row>
     <row r="41" spans="2:16" x14ac:dyDescent="0.3">
@@ -4471,23 +4296,23 @@
     </row>
     <row r="43" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B43" s="1" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>112</v>
+        <v>97</v>
       </c>
     </row>
     <row r="44" spans="2:16" x14ac:dyDescent="0.3">
       <c r="C44" s="2" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
     </row>
     <row r="45" spans="2:16" x14ac:dyDescent="0.3">
       <c r="C45" s="2" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="D45" s="1">
         <v>3</v>
@@ -4495,38 +4320,38 @@
     </row>
     <row r="46" spans="2:16" x14ac:dyDescent="0.3">
       <c r="C46" s="2" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
     </row>
     <row r="47" spans="2:16" x14ac:dyDescent="0.3">
       <c r="C47" s="2" t="s">
-        <v>120</v>
+        <v>105</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>124</v>
+        <v>109</v>
       </c>
     </row>
     <row r="48" spans="2:16" x14ac:dyDescent="0.3">
       <c r="C48" s="2" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
     </row>
     <row r="49" spans="3:16" x14ac:dyDescent="0.3">
       <c r="C49" s="2"/>
       <c r="D49" s="3" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="E49" s="3" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="F49" s="3" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="G49" s="20" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="H49" s="21"/>
       <c r="I49" s="21"/>
@@ -4535,26 +4360,26 @@
       <c r="L49" s="21"/>
       <c r="M49" s="22"/>
       <c r="N49" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="O49" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="O49" s="3" t="s">
-        <v>47</v>
-      </c>
       <c r="P49" s="4" t="s">
-        <v>162</v>
+        <v>146</v>
       </c>
     </row>
     <row r="50" spans="3:16" x14ac:dyDescent="0.3">
       <c r="C50" s="2"/>
       <c r="D50" s="4" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="E50" s="4" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="F50" s="4"/>
       <c r="G50" s="17" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="H50" s="18"/>
       <c r="I50" s="18"/>
@@ -4565,20 +4390,20 @@
       <c r="N50" s="4"/>
       <c r="O50" s="4"/>
       <c r="P50" s="4" t="s">
-        <v>166</v>
+        <v>150</v>
       </c>
     </row>
     <row r="51" spans="3:16" x14ac:dyDescent="0.3">
       <c r="C51" s="2"/>
       <c r="D51" s="4" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="E51" s="4" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="F51" s="4"/>
       <c r="G51" s="17" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="H51" s="18"/>
       <c r="I51" s="18"/>
@@ -4589,20 +4414,20 @@
       <c r="N51" s="4"/>
       <c r="O51" s="4"/>
       <c r="P51" s="4" t="s">
-        <v>164</v>
+        <v>148</v>
       </c>
     </row>
     <row r="52" spans="3:16" x14ac:dyDescent="0.3">
       <c r="C52" s="2"/>
       <c r="D52" s="4" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="E52" s="5" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="F52" s="4"/>
       <c r="G52" s="17" t="s">
-        <v>175</v>
+        <v>159</v>
       </c>
       <c r="H52" s="18"/>
       <c r="I52" s="18"/>
@@ -4612,23 +4437,23 @@
       <c r="M52" s="19"/>
       <c r="N52" s="4"/>
       <c r="O52" s="4" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="P52" s="4" t="s">
-        <v>164</v>
+        <v>148</v>
       </c>
     </row>
     <row r="53" spans="3:16" x14ac:dyDescent="0.3">
       <c r="C53" s="2"/>
       <c r="D53" s="4" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="E53" s="4" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="F53" s="4"/>
       <c r="G53" s="17" t="s">
-        <v>174</v>
+        <v>158</v>
       </c>
       <c r="H53" s="18"/>
       <c r="I53" s="18"/>
@@ -4639,20 +4464,20 @@
       <c r="N53" s="4"/>
       <c r="O53" s="4"/>
       <c r="P53" s="4" t="s">
-        <v>167</v>
+        <v>151</v>
       </c>
     </row>
     <row r="54" spans="3:16" x14ac:dyDescent="0.3">
       <c r="C54" s="2"/>
       <c r="D54" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="E54" s="5" t="s">
         <v>32</v>
-      </c>
-      <c r="E54" s="5" t="s">
-        <v>38</v>
       </c>
       <c r="F54" s="4"/>
       <c r="G54" s="17" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="H54" s="18"/>
       <c r="I54" s="18"/>
@@ -4663,20 +4488,20 @@
       <c r="N54" s="4"/>
       <c r="O54" s="4"/>
       <c r="P54" s="4" t="s">
-        <v>167</v>
+        <v>151</v>
       </c>
     </row>
     <row r="55" spans="3:16" x14ac:dyDescent="0.3">
       <c r="C55" s="2"/>
       <c r="D55" s="4" t="s">
-        <v>116</v>
+        <v>101</v>
       </c>
       <c r="E55" s="4" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="F55" s="4"/>
       <c r="G55" s="17" t="s">
-        <v>115</v>
+        <v>100</v>
       </c>
       <c r="H55" s="18"/>
       <c r="I55" s="18"/>
@@ -4685,24 +4510,24 @@
       <c r="L55" s="18"/>
       <c r="M55" s="19"/>
       <c r="N55" s="4" t="s">
-        <v>196</v>
+        <v>180</v>
       </c>
       <c r="O55" s="4"/>
       <c r="P55" s="4" t="s">
-        <v>164</v>
+        <v>148</v>
       </c>
     </row>
     <row r="56" spans="3:16" x14ac:dyDescent="0.3">
       <c r="C56" s="2"/>
       <c r="D56" s="4" t="s">
-        <v>117</v>
+        <v>102</v>
       </c>
       <c r="E56" s="5" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="F56" s="4"/>
       <c r="G56" s="17" t="s">
-        <v>173</v>
+        <v>157</v>
       </c>
       <c r="H56" s="18"/>
       <c r="I56" s="18"/>
@@ -4711,86 +4536,86 @@
       <c r="L56" s="18"/>
       <c r="M56" s="19"/>
       <c r="N56" s="4" t="s">
-        <v>197</v>
+        <v>181</v>
       </c>
       <c r="O56" s="4"/>
       <c r="P56" s="4" t="s">
-        <v>167</v>
+        <v>151</v>
       </c>
     </row>
     <row r="57" spans="3:16" x14ac:dyDescent="0.3">
       <c r="C57" s="1" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>118</v>
+        <v>103</v>
       </c>
     </row>
     <row r="58" spans="3:16" x14ac:dyDescent="0.3">
       <c r="D58" s="1" t="s">
-        <v>119</v>
+        <v>104</v>
       </c>
     </row>
     <row r="60" spans="3:16" x14ac:dyDescent="0.3">
       <c r="C60" s="1" t="s">
-        <v>128</v>
+        <v>112</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>129</v>
+        <v>113</v>
       </c>
     </row>
     <row r="62" spans="3:16" x14ac:dyDescent="0.3">
       <c r="C62" s="1" t="s">
-        <v>185</v>
+        <v>169</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>193</v>
+        <v>177</v>
       </c>
     </row>
     <row r="63" spans="3:16" x14ac:dyDescent="0.3">
       <c r="D63" s="1" t="s">
-        <v>198</v>
+        <v>182</v>
       </c>
     </row>
     <row r="65" spans="2:16" x14ac:dyDescent="0.3">
       <c r="C65" s="1" t="s">
-        <v>188</v>
+        <v>172</v>
       </c>
     </row>
     <row r="66" spans="2:16" x14ac:dyDescent="0.3">
       <c r="D66" s="1" t="s">
-        <v>194</v>
+        <v>178</v>
       </c>
     </row>
     <row r="67" spans="2:16" x14ac:dyDescent="0.3">
       <c r="C67" s="1" t="s">
-        <v>190</v>
+        <v>174</v>
       </c>
     </row>
     <row r="68" spans="2:16" x14ac:dyDescent="0.3">
       <c r="D68" s="1" t="s">
-        <v>199</v>
+        <v>183</v>
       </c>
     </row>
     <row r="70" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B70" s="1" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>113</v>
+        <v>98</v>
       </c>
     </row>
     <row r="71" spans="2:16" x14ac:dyDescent="0.3">
       <c r="C71" s="2" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
     </row>
     <row r="72" spans="2:16" x14ac:dyDescent="0.3">
       <c r="C72" s="2" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="D72" s="1">
         <v>3</v>
@@ -4798,38 +4623,38 @@
     </row>
     <row r="73" spans="2:16" x14ac:dyDescent="0.3">
       <c r="C73" s="2" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="D73" s="1" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
     </row>
     <row r="74" spans="2:16" x14ac:dyDescent="0.3">
       <c r="C74" s="2" t="s">
-        <v>120</v>
+        <v>105</v>
       </c>
       <c r="D74" s="1" t="s">
-        <v>123</v>
+        <v>108</v>
       </c>
     </row>
     <row r="75" spans="2:16" x14ac:dyDescent="0.3">
       <c r="C75" s="2" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
     </row>
     <row r="76" spans="2:16" x14ac:dyDescent="0.3">
       <c r="C76" s="2"/>
       <c r="D76" s="3" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="E76" s="3" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="F76" s="3" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="G76" s="20" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="H76" s="21"/>
       <c r="I76" s="21"/>
@@ -4838,26 +4663,26 @@
       <c r="L76" s="21"/>
       <c r="M76" s="22"/>
       <c r="N76" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="O76" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="O76" s="3" t="s">
-        <v>47</v>
-      </c>
       <c r="P76" s="4" t="s">
-        <v>162</v>
+        <v>146</v>
       </c>
     </row>
     <row r="77" spans="2:16" x14ac:dyDescent="0.3">
       <c r="C77" s="2"/>
       <c r="D77" s="4" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="E77" s="4" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="F77" s="4"/>
       <c r="G77" s="17" t="s">
-        <v>106</v>
+        <v>91</v>
       </c>
       <c r="H77" s="18"/>
       <c r="I77" s="18"/>
@@ -4868,20 +4693,20 @@
       <c r="N77" s="4"/>
       <c r="O77" s="4"/>
       <c r="P77" s="4" t="s">
-        <v>164</v>
+        <v>148</v>
       </c>
     </row>
     <row r="78" spans="2:16" x14ac:dyDescent="0.3">
       <c r="C78" s="2"/>
       <c r="D78" s="4" t="s">
-        <v>111</v>
+        <v>96</v>
       </c>
       <c r="E78" s="4" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="F78" s="4"/>
       <c r="G78" s="17" t="s">
-        <v>171</v>
+        <v>155</v>
       </c>
       <c r="H78" s="18"/>
       <c r="I78" s="18"/>
@@ -4892,20 +4717,20 @@
       <c r="N78" s="4"/>
       <c r="O78" s="4"/>
       <c r="P78" s="4" t="s">
-        <v>172</v>
+        <v>156</v>
       </c>
     </row>
     <row r="79" spans="2:16" x14ac:dyDescent="0.3">
       <c r="C79" s="2"/>
       <c r="D79" s="4" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="E79" s="5" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="F79" s="4"/>
       <c r="G79" s="17" t="s">
-        <v>170</v>
+        <v>154</v>
       </c>
       <c r="H79" s="18"/>
       <c r="I79" s="18"/>
@@ -4914,24 +4739,24 @@
       <c r="L79" s="18"/>
       <c r="M79" s="19"/>
       <c r="N79" s="4" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="O79" s="4"/>
       <c r="P79" s="4" t="s">
-        <v>167</v>
+        <v>151</v>
       </c>
     </row>
     <row r="80" spans="2:16" x14ac:dyDescent="0.3">
       <c r="C80" s="2"/>
       <c r="D80" s="4" t="s">
-        <v>107</v>
+        <v>92</v>
       </c>
       <c r="E80" s="4" t="s">
-        <v>108</v>
+        <v>93</v>
       </c>
       <c r="F80" s="4"/>
       <c r="G80" s="17" t="s">
-        <v>109</v>
+        <v>94</v>
       </c>
       <c r="H80" s="18"/>
       <c r="I80" s="18"/>
@@ -4942,20 +4767,20 @@
       <c r="N80" s="4"/>
       <c r="O80" s="4"/>
       <c r="P80" s="4" t="s">
-        <v>164</v>
+        <v>148</v>
       </c>
     </row>
     <row r="81" spans="3:16" x14ac:dyDescent="0.3">
       <c r="C81" s="2"/>
       <c r="D81" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="E81" s="5" t="s">
         <v>32</v>
-      </c>
-      <c r="E81" s="5" t="s">
-        <v>38</v>
       </c>
       <c r="F81" s="4"/>
       <c r="G81" s="17" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="H81" s="18"/>
       <c r="I81" s="18"/>
@@ -4966,7 +4791,7 @@
       <c r="N81" s="4"/>
       <c r="O81" s="4"/>
       <c r="P81" s="4" t="s">
-        <v>167</v>
+        <v>151</v>
       </c>
     </row>
     <row r="82" spans="3:16" x14ac:dyDescent="0.3">
@@ -5001,77 +4826,77 @@
     </row>
     <row r="84" spans="3:16" x14ac:dyDescent="0.3">
       <c r="C84" s="1" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="D84" s="1" t="s">
-        <v>110</v>
+        <v>95</v>
       </c>
     </row>
     <row r="85" spans="3:16" x14ac:dyDescent="0.3">
       <c r="D85" s="1" t="s">
-        <v>192</v>
+        <v>176</v>
       </c>
     </row>
     <row r="87" spans="3:16" x14ac:dyDescent="0.3">
       <c r="C87" s="1" t="s">
-        <v>130</v>
+        <v>114</v>
       </c>
       <c r="D87" s="1" t="s">
-        <v>131</v>
+        <v>115</v>
       </c>
     </row>
     <row r="89" spans="3:16" x14ac:dyDescent="0.3">
       <c r="C89" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="D89" s="1" t="s">
         <v>185</v>
-      </c>
-      <c r="D89" s="1" t="s">
-        <v>201</v>
       </c>
     </row>
     <row r="90" spans="3:16" x14ac:dyDescent="0.3">
       <c r="D90" s="1" t="s">
-        <v>202</v>
+        <v>186</v>
       </c>
     </row>
     <row r="92" spans="3:16" x14ac:dyDescent="0.3">
       <c r="C92" s="1" t="s">
-        <v>188</v>
+        <v>172</v>
       </c>
     </row>
     <row r="93" spans="3:16" x14ac:dyDescent="0.3">
       <c r="D93" s="1" t="s">
-        <v>203</v>
+        <v>187</v>
       </c>
     </row>
     <row r="94" spans="3:16" x14ac:dyDescent="0.3">
       <c r="C94" s="1" t="s">
-        <v>190</v>
+        <v>174</v>
       </c>
     </row>
     <row r="95" spans="3:16" x14ac:dyDescent="0.3">
       <c r="D95" s="1" t="s">
-        <v>204</v>
+        <v>188</v>
       </c>
     </row>
     <row r="97" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B97" s="1" t="s">
-        <v>101</v>
+        <v>86</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>114</v>
+        <v>99</v>
       </c>
     </row>
     <row r="98" spans="2:16" x14ac:dyDescent="0.3">
       <c r="C98" s="2" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="D98" s="1" t="s">
-        <v>102</v>
+        <v>87</v>
       </c>
     </row>
     <row r="99" spans="2:16" x14ac:dyDescent="0.3">
       <c r="C99" s="2" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="D99" s="1">
         <v>3</v>
@@ -5079,38 +4904,38 @@
     </row>
     <row r="100" spans="2:16" x14ac:dyDescent="0.3">
       <c r="C100" s="2" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="D100" s="1" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
     </row>
     <row r="101" spans="2:16" x14ac:dyDescent="0.3">
       <c r="C101" s="2" t="s">
-        <v>120</v>
+        <v>105</v>
       </c>
       <c r="D101" s="1" t="s">
-        <v>122</v>
+        <v>107</v>
       </c>
     </row>
     <row r="102" spans="2:16" x14ac:dyDescent="0.3">
       <c r="C102" s="2" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
     </row>
     <row r="103" spans="2:16" x14ac:dyDescent="0.3">
       <c r="C103" s="2"/>
       <c r="D103" s="3" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="E103" s="3" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="F103" s="3" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="G103" s="20" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="H103" s="21"/>
       <c r="I103" s="21"/>
@@ -5119,26 +4944,26 @@
       <c r="L103" s="21"/>
       <c r="M103" s="22"/>
       <c r="N103" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="O103" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="O103" s="3" t="s">
-        <v>47</v>
-      </c>
       <c r="P103" s="4" t="s">
-        <v>162</v>
+        <v>146</v>
       </c>
     </row>
     <row r="104" spans="2:16" x14ac:dyDescent="0.3">
       <c r="C104" s="2"/>
       <c r="D104" s="4" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="E104" s="4" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="F104" s="4"/>
       <c r="G104" s="17" t="s">
-        <v>182</v>
+        <v>166</v>
       </c>
       <c r="H104" s="18"/>
       <c r="I104" s="18"/>
@@ -5149,20 +4974,20 @@
       <c r="N104" s="4"/>
       <c r="O104" s="4"/>
       <c r="P104" s="4" t="s">
-        <v>164</v>
+        <v>148</v>
       </c>
     </row>
     <row r="105" spans="2:16" x14ac:dyDescent="0.3">
       <c r="C105" s="2"/>
       <c r="D105" s="4" t="s">
-        <v>103</v>
+        <v>88</v>
       </c>
       <c r="E105" s="4" t="s">
-        <v>105</v>
+        <v>90</v>
       </c>
       <c r="F105" s="4"/>
       <c r="G105" s="17" t="s">
-        <v>168</v>
+        <v>152</v>
       </c>
       <c r="H105" s="18"/>
       <c r="I105" s="18"/>
@@ -5173,20 +4998,20 @@
       <c r="N105" s="4"/>
       <c r="O105" s="4"/>
       <c r="P105" s="4" t="s">
-        <v>167</v>
+        <v>151</v>
       </c>
     </row>
     <row r="106" spans="2:16" x14ac:dyDescent="0.3">
       <c r="C106" s="2"/>
       <c r="D106" s="4" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="E106" s="5" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="F106" s="4"/>
       <c r="G106" s="17" t="s">
-        <v>180</v>
+        <v>164</v>
       </c>
       <c r="H106" s="18"/>
       <c r="I106" s="18"/>
@@ -5195,26 +5020,26 @@
       <c r="L106" s="18"/>
       <c r="M106" s="19"/>
       <c r="N106" s="4" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="O106" s="4" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="P106" s="4" t="s">
-        <v>167</v>
+        <v>151</v>
       </c>
     </row>
     <row r="107" spans="2:16" x14ac:dyDescent="0.3">
       <c r="C107" s="2"/>
       <c r="D107" s="4" t="s">
-        <v>104</v>
+        <v>89</v>
       </c>
       <c r="E107" s="4" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="F107" s="4"/>
       <c r="G107" s="17" t="s">
-        <v>169</v>
+        <v>153</v>
       </c>
       <c r="H107" s="18"/>
       <c r="I107" s="18"/>
@@ -5225,20 +5050,20 @@
       <c r="N107" s="4"/>
       <c r="O107" s="4"/>
       <c r="P107" s="4" t="s">
-        <v>167</v>
+        <v>151</v>
       </c>
     </row>
     <row r="108" spans="2:16" x14ac:dyDescent="0.3">
       <c r="C108" s="2"/>
       <c r="D108" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="E108" s="5" t="s">
         <v>32</v>
-      </c>
-      <c r="E108" s="5" t="s">
-        <v>38</v>
       </c>
       <c r="F108" s="4"/>
       <c r="G108" s="17" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="H108" s="18"/>
       <c r="I108" s="18"/>
@@ -5249,7 +5074,7 @@
       <c r="N108" s="4"/>
       <c r="O108" s="4"/>
       <c r="P108" s="4" t="s">
-        <v>167</v>
+        <v>151</v>
       </c>
     </row>
     <row r="109" spans="2:16" x14ac:dyDescent="0.3">
@@ -5269,61 +5094,61 @@
     </row>
     <row r="110" spans="2:16" x14ac:dyDescent="0.3">
       <c r="C110" s="1" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="D110" s="1" t="s">
-        <v>183</v>
+        <v>167</v>
       </c>
     </row>
     <row r="112" spans="2:16" x14ac:dyDescent="0.3">
       <c r="C112" s="1" t="s">
-        <v>132</v>
+        <v>116</v>
       </c>
       <c r="D112" s="1" t="s">
-        <v>133</v>
+        <v>117</v>
       </c>
     </row>
     <row r="114" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C114" s="1" t="s">
-        <v>185</v>
+        <v>169</v>
       </c>
       <c r="D114" s="1" t="s">
-        <v>184</v>
+        <v>168</v>
       </c>
     </row>
     <row r="115" spans="3:4" x14ac:dyDescent="0.3">
       <c r="D115" s="1" t="s">
-        <v>186</v>
+        <v>170</v>
       </c>
     </row>
     <row r="116" spans="3:4" x14ac:dyDescent="0.3">
       <c r="D116" s="1" t="s">
-        <v>187</v>
+        <v>171</v>
       </c>
     </row>
     <row r="117" spans="3:4" x14ac:dyDescent="0.3">
       <c r="D117" s="1" t="s">
-        <v>200</v>
+        <v>184</v>
       </c>
     </row>
     <row r="119" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C119" s="1" t="s">
-        <v>188</v>
+        <v>172</v>
       </c>
     </row>
     <row r="120" spans="3:4" x14ac:dyDescent="0.3">
       <c r="D120" s="1" t="s">
-        <v>189</v>
+        <v>173</v>
       </c>
     </row>
     <row r="121" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C121" s="1" t="s">
-        <v>190</v>
+        <v>174</v>
       </c>
     </row>
     <row r="122" spans="3:4" x14ac:dyDescent="0.3">
       <c r="D122" s="1" t="s">
-        <v>191</v>
+        <v>175</v>
       </c>
     </row>
   </sheetData>

--- a/gd/Demo/Demo副本设计.xlsx
+++ b/gd/Demo/Demo副本设计.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="135" windowWidth="21180" windowHeight="11730" activeTab="3"/>
+    <workbookView xWindow="240" yWindow="135" windowWidth="21180" windowHeight="11730"/>
   </bookViews>
   <sheets>
     <sheet name="封面" sheetId="5" r:id="rId1"/>
@@ -13,12 +13,12 @@
     <sheet name="对局设计" sheetId="1" r:id="rId4"/>
     <sheet name="怪物设计" sheetId="3" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="144525" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="356" uniqueCount="200">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="360" uniqueCount="208">
   <si>
     <t>胜利条件</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -286,10 +286,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>Unity_Demo_qingniao</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>群法（法术）</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -347,14 +343,6 @@
   </si>
   <si>
     <t>白泽or混沌or玄武or九尾狐</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>1号站位出现boss，继承进程1血量与能量，消灭boss后进程2结束，同时对局结束</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>1号站位出现boss，攻破弱点后进程1结束，进入进程2；</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -462,10 +450,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>Unity_Demo_zhuyan</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>破解方式</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -725,10 +709,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>第二进程使用</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>攻破3个弱点后，进入下个进程</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -798,6 +778,58 @@
   </si>
   <si>
     <t>消灭每波怪物</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>随机目标，优先于其他技能，CD5个周期</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>第一进程使用</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>999个周期</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>自身，第一个进程开始时使用，第二个进程不使用</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>自身</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>通用</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>完善白泽AI</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Unit_Demo_qingniao</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Unit_Demo_zhuyan</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>中间站位出现boss，攻破弱点后进程1结束，进入进程2；</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>中间站位出现boss，继承进程1血量与能量，消灭boss后进程2结束，同时对局结束</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>boss局中1号站位换为中间站位</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>更正怪物ID</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -876,12 +908,18 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="5">
@@ -954,7 +992,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -992,6 +1030,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -3100,10 +3139,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K18"/>
+  <dimension ref="A1:K22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G22" sqref="G22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
@@ -3115,10 +3154,10 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" s="9" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="B1" s="10" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="C1" s="11"/>
       <c r="D1" s="11"/>
@@ -3143,10 +3182,10 @@
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="9" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="C3" s="11"/>
       <c r="D3" s="11"/>
@@ -3171,7 +3210,7 @@
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="9" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="B5" s="10"/>
       <c r="C5" s="11"/>
@@ -3197,7 +3236,7 @@
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="9" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="B7" s="10"/>
       <c r="C7" s="13"/>
@@ -3223,28 +3262,28 @@
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="9" t="s">
+        <v>118</v>
+      </c>
+      <c r="B9" s="10" t="s">
+        <v>119</v>
+      </c>
+      <c r="C9" s="11" t="s">
+        <v>120</v>
+      </c>
+      <c r="D9" s="11" t="s">
+        <v>121</v>
+      </c>
+      <c r="E9" s="11" t="s">
         <v>122</v>
       </c>
-      <c r="B9" s="10" t="s">
+      <c r="F9" s="11" t="s">
         <v>123</v>
       </c>
-      <c r="C9" s="11" t="s">
+      <c r="G9" s="11" t="s">
         <v>124</v>
       </c>
-      <c r="D9" s="11" t="s">
+      <c r="H9" s="11" t="s">
         <v>125</v>
-      </c>
-      <c r="E9" s="11" t="s">
-        <v>126</v>
-      </c>
-      <c r="F9" s="11" t="s">
-        <v>127</v>
-      </c>
-      <c r="G9" s="11" t="s">
-        <v>128</v>
-      </c>
-      <c r="H9" s="11" t="s">
-        <v>129</v>
       </c>
       <c r="I9" s="10"/>
       <c r="J9" s="10"/>
@@ -3264,23 +3303,23 @@
     <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="9"/>
       <c r="B11" s="10" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="C11" s="14">
         <v>42087</v>
       </c>
       <c r="D11" s="11" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="E11" s="11" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="F11" s="11" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="G11" s="11"/>
       <c r="H11" s="10" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="I11" s="10"/>
       <c r="J11" s="10"/>
@@ -3288,22 +3327,22 @@
     <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" s="9"/>
       <c r="B12" s="10" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="C12" s="14">
         <v>42090</v>
       </c>
       <c r="D12" s="11" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="E12" s="11" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="G12" s="11" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="H12" s="10" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="I12" s="10"/>
       <c r="J12" s="10"/>
@@ -3317,7 +3356,7 @@
       <c r="E13" s="11"/>
       <c r="G13" s="11"/>
       <c r="H13" s="10" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="I13" s="10"/>
       <c r="J13" s="10"/>
@@ -3331,7 +3370,7 @@
       <c r="E14" s="11"/>
       <c r="G14" s="11"/>
       <c r="H14" s="10" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="I14" s="10"/>
       <c r="J14" s="10"/>
@@ -3346,7 +3385,7 @@
       <c r="F15" s="11"/>
       <c r="G15" s="10"/>
       <c r="H15" s="10" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="I15" s="10"/>
       <c r="J15" s="10"/>
@@ -3361,7 +3400,7 @@
       <c r="F16" s="11"/>
       <c r="G16" s="10"/>
       <c r="H16" s="10" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="I16" s="10"/>
       <c r="J16" s="10"/>
@@ -3375,35 +3414,93 @@
       <c r="E17" s="15"/>
       <c r="F17" s="11"/>
       <c r="G17" s="10"/>
-      <c r="H17" s="10"/>
+      <c r="H17" s="10" t="s">
+        <v>201</v>
+      </c>
       <c r="I17" s="10"/>
       <c r="J17" s="10"/>
       <c r="K17" s="16"/>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A18" s="9" t="s">
-        <v>135</v>
-      </c>
-      <c r="B18" s="10" t="s">
-        <v>123</v>
-      </c>
-      <c r="C18" s="11" t="s">
-        <v>136</v>
-      </c>
-      <c r="D18" s="11" t="s">
-        <v>137</v>
-      </c>
-      <c r="E18" s="11" t="s">
-        <v>138</v>
-      </c>
+      <c r="A18" s="9"/>
+      <c r="B18" s="10"/>
+      <c r="C18" s="14"/>
+      <c r="D18" s="11"/>
+      <c r="E18" s="15"/>
       <c r="F18" s="11"/>
       <c r="G18" s="10"/>
       <c r="H18" s="10" t="s">
-        <v>139</v>
+        <v>206</v>
       </c>
       <c r="I18" s="10"/>
       <c r="J18" s="10"/>
       <c r="K18" s="16"/>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A19" s="9"/>
+      <c r="B19" s="10"/>
+      <c r="C19" s="14"/>
+      <c r="D19" s="11"/>
+      <c r="E19" s="15"/>
+      <c r="F19" s="11"/>
+      <c r="G19" s="10"/>
+      <c r="H19" s="10" t="s">
+        <v>207</v>
+      </c>
+      <c r="I19" s="10"/>
+      <c r="J19" s="10"/>
+      <c r="K19" s="16"/>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A20" s="9"/>
+      <c r="B20" s="10"/>
+      <c r="C20" s="14"/>
+      <c r="D20" s="11"/>
+      <c r="E20" s="15"/>
+      <c r="F20" s="11"/>
+      <c r="G20" s="10"/>
+      <c r="H20" s="10"/>
+      <c r="I20" s="10"/>
+      <c r="J20" s="10"/>
+      <c r="K20" s="16"/>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A21" s="9"/>
+      <c r="B21" s="10"/>
+      <c r="C21" s="14"/>
+      <c r="D21" s="11"/>
+      <c r="E21" s="15"/>
+      <c r="F21" s="11"/>
+      <c r="G21" s="10"/>
+      <c r="H21" s="10"/>
+      <c r="I21" s="10"/>
+      <c r="J21" s="10"/>
+      <c r="K21" s="16"/>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A22" s="9" t="s">
+        <v>131</v>
+      </c>
+      <c r="B22" s="10" t="s">
+        <v>119</v>
+      </c>
+      <c r="C22" s="11" t="s">
+        <v>132</v>
+      </c>
+      <c r="D22" s="11" t="s">
+        <v>133</v>
+      </c>
+      <c r="E22" s="11" t="s">
+        <v>134</v>
+      </c>
+      <c r="F22" s="11"/>
+      <c r="G22" s="10"/>
+      <c r="H22" s="10" t="s">
+        <v>135</v>
+      </c>
+      <c r="I22" s="10"/>
+      <c r="J22" s="10"/>
+      <c r="K22" s="16"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
@@ -3437,7 +3534,7 @@
         <v>6</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
     </row>
     <row r="9" spans="2:3" x14ac:dyDescent="0.3">
@@ -3455,7 +3552,7 @@
     </row>
     <row r="12" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B12" s="1" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
     </row>
   </sheetData>
@@ -3487,9 +3584,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:F37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
@@ -3498,26 +3593,26 @@
   <sheetData>
     <row r="2" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B2" s="1" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
     </row>
     <row r="3" spans="2:6" x14ac:dyDescent="0.3">
       <c r="C3" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="F3" s="1" t="s">
         <v>192</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>196</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>197</v>
       </c>
     </row>
     <row r="4" spans="2:6" x14ac:dyDescent="0.3">
       <c r="C4" s="1" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="D4" s="1">
         <v>2</v>
@@ -3531,7 +3626,7 @@
     </row>
     <row r="5" spans="2:6" x14ac:dyDescent="0.3">
       <c r="C5" s="1" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="D5" s="1">
         <v>2</v>
@@ -3542,7 +3637,7 @@
         <v>0</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
     </row>
     <row r="8" spans="2:6" x14ac:dyDescent="0.3">
@@ -3555,7 +3650,7 @@
     </row>
     <row r="10" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B10" s="1" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
     </row>
     <row r="11" spans="2:6" x14ac:dyDescent="0.3">
@@ -3579,7 +3674,7 @@
         <v>15</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="15" spans="2:6" x14ac:dyDescent="0.3">
@@ -3600,12 +3695,12 @@
         <v>13</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>84</v>
+        <v>204</v>
       </c>
     </row>
     <row r="18" spans="3:5" x14ac:dyDescent="0.3">
       <c r="E18" s="1" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
     </row>
     <row r="19" spans="3:5" x14ac:dyDescent="0.3">
@@ -3613,7 +3708,7 @@
         <v>18</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>83</v>
+        <v>205</v>
       </c>
     </row>
     <row r="21" spans="3:5" x14ac:dyDescent="0.3">
@@ -3650,7 +3745,7 @@
         <v>0</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
     </row>
     <row r="27" spans="3:5" x14ac:dyDescent="0.3">
@@ -3682,8 +3777,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:P122"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D96" sqref="D96"/>
+    <sheetView topLeftCell="A64" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F121" sqref="F121"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3723,15 +3818,15 @@
         <v>37</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="6" spans="2:16" x14ac:dyDescent="0.3">
       <c r="C6" s="2" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
     </row>
     <row r="7" spans="2:16" x14ac:dyDescent="0.3">
@@ -3750,15 +3845,15 @@
       <c r="F8" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="G8" s="20" t="s">
+      <c r="G8" s="21" t="s">
         <v>30</v>
       </c>
-      <c r="H8" s="21"/>
-      <c r="I8" s="21"/>
-      <c r="J8" s="21"/>
-      <c r="K8" s="21"/>
-      <c r="L8" s="21"/>
-      <c r="M8" s="22"/>
+      <c r="H8" s="22"/>
+      <c r="I8" s="22"/>
+      <c r="J8" s="22"/>
+      <c r="K8" s="22"/>
+      <c r="L8" s="22"/>
+      <c r="M8" s="23"/>
       <c r="N8" s="3" t="s">
         <v>35</v>
       </c>
@@ -3766,7 +3861,7 @@
         <v>41</v>
       </c>
       <c r="P8" s="4" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
     </row>
     <row r="9" spans="2:16" x14ac:dyDescent="0.3">
@@ -3778,19 +3873,19 @@
         <v>31</v>
       </c>
       <c r="F9" s="4"/>
-      <c r="G9" s="17" t="s">
+      <c r="G9" s="18" t="s">
         <v>63</v>
       </c>
-      <c r="H9" s="18"/>
-      <c r="I9" s="18"/>
-      <c r="J9" s="18"/>
-      <c r="K9" s="18"/>
-      <c r="L9" s="18"/>
-      <c r="M9" s="19"/>
+      <c r="H9" s="19"/>
+      <c r="I9" s="19"/>
+      <c r="J9" s="19"/>
+      <c r="K9" s="19"/>
+      <c r="L9" s="19"/>
+      <c r="M9" s="20"/>
       <c r="N9" s="4"/>
       <c r="O9" s="4"/>
       <c r="P9" s="4" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
     </row>
     <row r="10" spans="2:16" x14ac:dyDescent="0.3">
@@ -3802,19 +3897,19 @@
         <v>62</v>
       </c>
       <c r="F10" s="4"/>
-      <c r="G10" s="17" t="s">
-        <v>147</v>
-      </c>
-      <c r="H10" s="18"/>
-      <c r="I10" s="18"/>
-      <c r="J10" s="18"/>
-      <c r="K10" s="18"/>
-      <c r="L10" s="18"/>
-      <c r="M10" s="19"/>
+      <c r="G10" s="18" t="s">
+        <v>143</v>
+      </c>
+      <c r="H10" s="19"/>
+      <c r="I10" s="19"/>
+      <c r="J10" s="19"/>
+      <c r="K10" s="19"/>
+      <c r="L10" s="19"/>
+      <c r="M10" s="20"/>
       <c r="N10" s="4"/>
       <c r="O10" s="4"/>
       <c r="P10" s="4" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
     </row>
     <row r="11" spans="2:16" x14ac:dyDescent="0.3">
@@ -3826,23 +3921,23 @@
         <v>36</v>
       </c>
       <c r="F11" s="4"/>
-      <c r="G11" s="17" t="s">
-        <v>162</v>
-      </c>
-      <c r="H11" s="18"/>
-      <c r="I11" s="18"/>
-      <c r="J11" s="18"/>
-      <c r="K11" s="18"/>
-      <c r="L11" s="18"/>
-      <c r="M11" s="19"/>
+      <c r="G11" s="18" t="s">
+        <v>158</v>
+      </c>
+      <c r="H11" s="19"/>
+      <c r="I11" s="19"/>
+      <c r="J11" s="19"/>
+      <c r="K11" s="19"/>
+      <c r="L11" s="19"/>
+      <c r="M11" s="20"/>
       <c r="N11" s="4" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="O11" s="4" t="s">
         <v>42</v>
       </c>
       <c r="P11" s="4" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
     </row>
     <row r="12" spans="2:16" x14ac:dyDescent="0.3">
@@ -3854,19 +3949,19 @@
         <v>62</v>
       </c>
       <c r="F12" s="4"/>
-      <c r="G12" s="17" t="s">
+      <c r="G12" s="18" t="s">
         <v>65</v>
       </c>
-      <c r="H12" s="18"/>
-      <c r="I12" s="18"/>
-      <c r="J12" s="18"/>
-      <c r="K12" s="18"/>
-      <c r="L12" s="18"/>
-      <c r="M12" s="19"/>
+      <c r="H12" s="19"/>
+      <c r="I12" s="19"/>
+      <c r="J12" s="19"/>
+      <c r="K12" s="19"/>
+      <c r="L12" s="19"/>
+      <c r="M12" s="20"/>
       <c r="N12" s="4"/>
       <c r="O12" s="4"/>
       <c r="P12" s="4" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
     </row>
     <row r="13" spans="2:16" x14ac:dyDescent="0.3">
@@ -3878,19 +3973,19 @@
         <v>32</v>
       </c>
       <c r="F13" s="4"/>
-      <c r="G13" s="17" t="s">
+      <c r="G13" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="H13" s="18"/>
-      <c r="I13" s="18"/>
-      <c r="J13" s="18"/>
-      <c r="K13" s="18"/>
-      <c r="L13" s="18"/>
-      <c r="M13" s="19"/>
+      <c r="H13" s="19"/>
+      <c r="I13" s="19"/>
+      <c r="J13" s="19"/>
+      <c r="K13" s="19"/>
+      <c r="L13" s="19"/>
+      <c r="M13" s="20"/>
       <c r="N13" s="4"/>
       <c r="O13" s="4"/>
       <c r="P13" s="4" t="s">
-        <v>151</v>
+        <v>200</v>
       </c>
     </row>
     <row r="16" spans="2:16" x14ac:dyDescent="0.3">
@@ -3903,7 +3998,7 @@
         <v>23</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>67</v>
+        <v>202</v>
       </c>
     </row>
     <row r="18" spans="2:16" x14ac:dyDescent="0.3">
@@ -3919,15 +4014,15 @@
         <v>37</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="20" spans="2:16" x14ac:dyDescent="0.3">
       <c r="C20" s="2" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
     </row>
     <row r="21" spans="2:16" x14ac:dyDescent="0.3">
@@ -3946,15 +4041,15 @@
       <c r="F22" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="G22" s="20" t="s">
+      <c r="G22" s="21" t="s">
         <v>30</v>
       </c>
-      <c r="H22" s="21"/>
-      <c r="I22" s="21"/>
-      <c r="J22" s="21"/>
-      <c r="K22" s="21"/>
-      <c r="L22" s="21"/>
-      <c r="M22" s="22"/>
+      <c r="H22" s="22"/>
+      <c r="I22" s="22"/>
+      <c r="J22" s="22"/>
+      <c r="K22" s="22"/>
+      <c r="L22" s="22"/>
+      <c r="M22" s="23"/>
       <c r="N22" s="3" t="s">
         <v>35</v>
       </c>
@@ -3962,7 +4057,7 @@
         <v>41</v>
       </c>
       <c r="P22" s="4" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
     </row>
     <row r="23" spans="2:16" x14ac:dyDescent="0.3">
@@ -3974,95 +4069,95 @@
         <v>31</v>
       </c>
       <c r="F23" s="4"/>
-      <c r="G23" s="17" t="s">
-        <v>69</v>
-      </c>
-      <c r="H23" s="18"/>
-      <c r="I23" s="18"/>
-      <c r="J23" s="18"/>
-      <c r="K23" s="18"/>
-      <c r="L23" s="18"/>
-      <c r="M23" s="19"/>
+      <c r="G23" s="18" t="s">
+        <v>68</v>
+      </c>
+      <c r="H23" s="19"/>
+      <c r="I23" s="19"/>
+      <c r="J23" s="19"/>
+      <c r="K23" s="19"/>
+      <c r="L23" s="19"/>
+      <c r="M23" s="20"/>
       <c r="N23" s="4"/>
       <c r="O23" s="4"/>
       <c r="P23" s="4" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
     </row>
     <row r="24" spans="2:16" x14ac:dyDescent="0.3">
       <c r="C24" s="2"/>
       <c r="D24" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E24" s="4" t="s">
         <v>31</v>
       </c>
       <c r="F24" s="4"/>
-      <c r="G24" s="17" t="s">
-        <v>70</v>
-      </c>
-      <c r="H24" s="18"/>
-      <c r="I24" s="18"/>
-      <c r="J24" s="18"/>
-      <c r="K24" s="18"/>
-      <c r="L24" s="18"/>
-      <c r="M24" s="19"/>
+      <c r="G24" s="18" t="s">
+        <v>69</v>
+      </c>
+      <c r="H24" s="19"/>
+      <c r="I24" s="19"/>
+      <c r="J24" s="19"/>
+      <c r="K24" s="19"/>
+      <c r="L24" s="19"/>
+      <c r="M24" s="20"/>
       <c r="N24" s="4"/>
       <c r="O24" s="4"/>
       <c r="P24" s="4" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
     </row>
     <row r="25" spans="2:16" x14ac:dyDescent="0.3">
       <c r="C25" s="2"/>
       <c r="D25" s="4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E25" s="5" t="s">
         <v>33</v>
       </c>
       <c r="F25" s="4"/>
-      <c r="G25" s="17" t="s">
-        <v>161</v>
-      </c>
-      <c r="H25" s="18"/>
-      <c r="I25" s="18"/>
-      <c r="J25" s="18"/>
-      <c r="K25" s="18"/>
-      <c r="L25" s="18"/>
-      <c r="M25" s="19"/>
+      <c r="G25" s="18" t="s">
+        <v>157</v>
+      </c>
+      <c r="H25" s="19"/>
+      <c r="I25" s="19"/>
+      <c r="J25" s="19"/>
+      <c r="K25" s="19"/>
+      <c r="L25" s="19"/>
+      <c r="M25" s="20"/>
       <c r="N25" s="4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="O25" s="4" t="s">
         <v>42</v>
       </c>
       <c r="P25" s="4" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
     </row>
     <row r="26" spans="2:16" x14ac:dyDescent="0.3">
       <c r="C26" s="2"/>
       <c r="D26" s="4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E26" s="4" t="s">
         <v>31</v>
       </c>
       <c r="F26" s="4"/>
-      <c r="G26" s="23" t="s">
-        <v>73</v>
-      </c>
-      <c r="H26" s="24"/>
-      <c r="I26" s="24"/>
-      <c r="J26" s="24"/>
-      <c r="K26" s="24"/>
-      <c r="L26" s="24"/>
-      <c r="M26" s="25"/>
+      <c r="G26" s="24" t="s">
+        <v>72</v>
+      </c>
+      <c r="H26" s="25"/>
+      <c r="I26" s="25"/>
+      <c r="J26" s="25"/>
+      <c r="K26" s="25"/>
+      <c r="L26" s="25"/>
+      <c r="M26" s="26"/>
       <c r="N26" s="4"/>
       <c r="O26" s="4"/>
       <c r="P26" s="4" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
     </row>
     <row r="27" spans="2:16" x14ac:dyDescent="0.3">
@@ -4074,19 +4169,19 @@
         <v>32</v>
       </c>
       <c r="F27" s="4"/>
-      <c r="G27" s="17" t="s">
+      <c r="G27" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="H27" s="18"/>
-      <c r="I27" s="18"/>
-      <c r="J27" s="18"/>
-      <c r="K27" s="18"/>
-      <c r="L27" s="18"/>
-      <c r="M27" s="19"/>
+      <c r="H27" s="19"/>
+      <c r="I27" s="19"/>
+      <c r="J27" s="19"/>
+      <c r="K27" s="19"/>
+      <c r="L27" s="19"/>
+      <c r="M27" s="20"/>
       <c r="N27" s="4"/>
       <c r="O27" s="4"/>
       <c r="P27" s="4" t="s">
-        <v>151</v>
+        <v>200</v>
       </c>
     </row>
     <row r="28" spans="2:16" x14ac:dyDescent="0.3">
@@ -4094,7 +4189,7 @@
     </row>
     <row r="29" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B29" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="30" spans="2:16" x14ac:dyDescent="0.3">
@@ -4102,7 +4197,7 @@
         <v>23</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>111</v>
+        <v>203</v>
       </c>
     </row>
     <row r="31" spans="2:16" x14ac:dyDescent="0.3">
@@ -4123,10 +4218,10 @@
     </row>
     <row r="33" spans="2:16" x14ac:dyDescent="0.3">
       <c r="C33" s="2" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
     </row>
     <row r="34" spans="2:16" x14ac:dyDescent="0.3">
@@ -4145,15 +4240,15 @@
       <c r="F35" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="G35" s="20" t="s">
+      <c r="G35" s="21" t="s">
         <v>30</v>
       </c>
-      <c r="H35" s="21"/>
-      <c r="I35" s="21"/>
-      <c r="J35" s="21"/>
-      <c r="K35" s="21"/>
-      <c r="L35" s="21"/>
-      <c r="M35" s="22"/>
+      <c r="H35" s="22"/>
+      <c r="I35" s="22"/>
+      <c r="J35" s="22"/>
+      <c r="K35" s="22"/>
+      <c r="L35" s="22"/>
+      <c r="M35" s="23"/>
       <c r="N35" s="3" t="s">
         <v>35</v>
       </c>
@@ -4161,7 +4256,7 @@
         <v>41</v>
       </c>
       <c r="P35" s="4" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
     </row>
     <row r="36" spans="2:16" x14ac:dyDescent="0.3">
@@ -4173,95 +4268,95 @@
         <v>31</v>
       </c>
       <c r="F36" s="4"/>
-      <c r="G36" s="17" t="s">
-        <v>69</v>
-      </c>
-      <c r="H36" s="18"/>
-      <c r="I36" s="18"/>
-      <c r="J36" s="18"/>
-      <c r="K36" s="18"/>
-      <c r="L36" s="18"/>
-      <c r="M36" s="19"/>
+      <c r="G36" s="18" t="s">
+        <v>68</v>
+      </c>
+      <c r="H36" s="19"/>
+      <c r="I36" s="19"/>
+      <c r="J36" s="19"/>
+      <c r="K36" s="19"/>
+      <c r="L36" s="19"/>
+      <c r="M36" s="20"/>
       <c r="N36" s="4"/>
       <c r="O36" s="4"/>
       <c r="P36" s="4" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
     </row>
     <row r="37" spans="2:16" x14ac:dyDescent="0.3">
       <c r="C37" s="2"/>
       <c r="D37" s="4" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E37" s="4" t="s">
         <v>31</v>
       </c>
       <c r="F37" s="4"/>
-      <c r="G37" s="17" t="s">
-        <v>81</v>
-      </c>
-      <c r="H37" s="18"/>
-      <c r="I37" s="18"/>
-      <c r="J37" s="18"/>
-      <c r="K37" s="18"/>
-      <c r="L37" s="18"/>
-      <c r="M37" s="19"/>
+      <c r="G37" s="18" t="s">
+        <v>80</v>
+      </c>
+      <c r="H37" s="19"/>
+      <c r="I37" s="19"/>
+      <c r="J37" s="19"/>
+      <c r="K37" s="19"/>
+      <c r="L37" s="19"/>
+      <c r="M37" s="20"/>
       <c r="N37" s="4"/>
       <c r="O37" s="4"/>
       <c r="P37" s="4" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
     </row>
     <row r="38" spans="2:16" x14ac:dyDescent="0.3">
       <c r="C38" s="2"/>
       <c r="D38" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E38" s="5" t="s">
         <v>36</v>
       </c>
       <c r="F38" s="4"/>
-      <c r="G38" s="17" t="s">
-        <v>160</v>
-      </c>
-      <c r="H38" s="18"/>
-      <c r="I38" s="18"/>
-      <c r="J38" s="18"/>
-      <c r="K38" s="18"/>
-      <c r="L38" s="18"/>
-      <c r="M38" s="19"/>
+      <c r="G38" s="18" t="s">
+        <v>156</v>
+      </c>
+      <c r="H38" s="19"/>
+      <c r="I38" s="19"/>
+      <c r="J38" s="19"/>
+      <c r="K38" s="19"/>
+      <c r="L38" s="19"/>
+      <c r="M38" s="20"/>
       <c r="N38" s="4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="O38" s="4" t="s">
         <v>42</v>
       </c>
       <c r="P38" s="4" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
     </row>
     <row r="39" spans="2:16" x14ac:dyDescent="0.3">
       <c r="C39" s="2"/>
       <c r="D39" s="4" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E39" s="4" t="s">
         <v>31</v>
       </c>
       <c r="F39" s="4"/>
-      <c r="G39" s="23" t="s">
-        <v>73</v>
-      </c>
-      <c r="H39" s="24"/>
-      <c r="I39" s="24"/>
-      <c r="J39" s="24"/>
-      <c r="K39" s="24"/>
-      <c r="L39" s="24"/>
-      <c r="M39" s="25"/>
+      <c r="G39" s="24" t="s">
+        <v>72</v>
+      </c>
+      <c r="H39" s="25"/>
+      <c r="I39" s="25"/>
+      <c r="J39" s="25"/>
+      <c r="K39" s="25"/>
+      <c r="L39" s="25"/>
+      <c r="M39" s="26"/>
       <c r="N39" s="4"/>
       <c r="O39" s="4"/>
       <c r="P39" s="4" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
     </row>
     <row r="40" spans="2:16" x14ac:dyDescent="0.3">
@@ -4273,19 +4368,19 @@
         <v>32</v>
       </c>
       <c r="F40" s="4"/>
-      <c r="G40" s="17" t="s">
+      <c r="G40" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="H40" s="18"/>
-      <c r="I40" s="18"/>
-      <c r="J40" s="18"/>
-      <c r="K40" s="18"/>
-      <c r="L40" s="18"/>
-      <c r="M40" s="19"/>
+      <c r="H40" s="19"/>
+      <c r="I40" s="19"/>
+      <c r="J40" s="19"/>
+      <c r="K40" s="19"/>
+      <c r="L40" s="19"/>
+      <c r="M40" s="20"/>
       <c r="N40" s="4"/>
       <c r="O40" s="4"/>
       <c r="P40" s="4" t="s">
-        <v>151</v>
+        <v>200</v>
       </c>
     </row>
     <row r="41" spans="2:16" x14ac:dyDescent="0.3">
@@ -4299,7 +4394,7 @@
         <v>43</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
     </row>
     <row r="44" spans="2:16" x14ac:dyDescent="0.3">
@@ -4328,10 +4423,10 @@
     </row>
     <row r="47" spans="2:16" x14ac:dyDescent="0.3">
       <c r="C47" s="2" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
     </row>
     <row r="48" spans="2:16" x14ac:dyDescent="0.3">
@@ -4350,15 +4445,15 @@
       <c r="F49" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="G49" s="20" t="s">
+      <c r="G49" s="21" t="s">
         <v>30</v>
       </c>
-      <c r="H49" s="21"/>
-      <c r="I49" s="21"/>
-      <c r="J49" s="21"/>
-      <c r="K49" s="21"/>
-      <c r="L49" s="21"/>
-      <c r="M49" s="22"/>
+      <c r="H49" s="22"/>
+      <c r="I49" s="22"/>
+      <c r="J49" s="22"/>
+      <c r="K49" s="22"/>
+      <c r="L49" s="22"/>
+      <c r="M49" s="23"/>
       <c r="N49" s="3" t="s">
         <v>35</v>
       </c>
@@ -4366,7 +4461,7 @@
         <v>41</v>
       </c>
       <c r="P49" s="4" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
     </row>
     <row r="50" spans="3:16" x14ac:dyDescent="0.3">
@@ -4378,19 +4473,19 @@
         <v>31</v>
       </c>
       <c r="F50" s="4"/>
-      <c r="G50" s="17" t="s">
+      <c r="G50" s="18" t="s">
         <v>49</v>
       </c>
-      <c r="H50" s="18"/>
-      <c r="I50" s="18"/>
-      <c r="J50" s="18"/>
-      <c r="K50" s="18"/>
-      <c r="L50" s="18"/>
-      <c r="M50" s="19"/>
+      <c r="H50" s="19"/>
+      <c r="I50" s="19"/>
+      <c r="J50" s="19"/>
+      <c r="K50" s="19"/>
+      <c r="L50" s="19"/>
+      <c r="M50" s="20"/>
       <c r="N50" s="4"/>
       <c r="O50" s="4"/>
       <c r="P50" s="4" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
     </row>
     <row r="51" spans="3:16" x14ac:dyDescent="0.3">
@@ -4402,19 +4497,19 @@
         <v>31</v>
       </c>
       <c r="F51" s="4"/>
-      <c r="G51" s="17" t="s">
+      <c r="G51" s="18" t="s">
         <v>52</v>
       </c>
-      <c r="H51" s="18"/>
-      <c r="I51" s="18"/>
-      <c r="J51" s="18"/>
-      <c r="K51" s="18"/>
-      <c r="L51" s="18"/>
-      <c r="M51" s="19"/>
+      <c r="H51" s="19"/>
+      <c r="I51" s="19"/>
+      <c r="J51" s="19"/>
+      <c r="K51" s="19"/>
+      <c r="L51" s="19"/>
+      <c r="M51" s="20"/>
       <c r="N51" s="4"/>
       <c r="O51" s="4"/>
       <c r="P51" s="4" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
     </row>
     <row r="52" spans="3:16" x14ac:dyDescent="0.3">
@@ -4426,21 +4521,21 @@
         <v>33</v>
       </c>
       <c r="F52" s="4"/>
-      <c r="G52" s="17" t="s">
-        <v>159</v>
-      </c>
-      <c r="H52" s="18"/>
-      <c r="I52" s="18"/>
-      <c r="J52" s="18"/>
-      <c r="K52" s="18"/>
-      <c r="L52" s="18"/>
-      <c r="M52" s="19"/>
+      <c r="G52" s="18" t="s">
+        <v>155</v>
+      </c>
+      <c r="H52" s="19"/>
+      <c r="I52" s="19"/>
+      <c r="J52" s="19"/>
+      <c r="K52" s="19"/>
+      <c r="L52" s="19"/>
+      <c r="M52" s="20"/>
       <c r="N52" s="4"/>
       <c r="O52" s="4" t="s">
         <v>42</v>
       </c>
       <c r="P52" s="4" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
     </row>
     <row r="53" spans="3:16" x14ac:dyDescent="0.3">
@@ -4452,19 +4547,19 @@
         <v>46</v>
       </c>
       <c r="F53" s="4"/>
-      <c r="G53" s="17" t="s">
-        <v>158</v>
-      </c>
-      <c r="H53" s="18"/>
-      <c r="I53" s="18"/>
-      <c r="J53" s="18"/>
-      <c r="K53" s="18"/>
-      <c r="L53" s="18"/>
-      <c r="M53" s="19"/>
+      <c r="G53" s="18" t="s">
+        <v>154</v>
+      </c>
+      <c r="H53" s="19"/>
+      <c r="I53" s="19"/>
+      <c r="J53" s="19"/>
+      <c r="K53" s="19"/>
+      <c r="L53" s="19"/>
+      <c r="M53" s="20"/>
       <c r="N53" s="4"/>
       <c r="O53" s="4"/>
       <c r="P53" s="4" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
     </row>
     <row r="54" spans="3:16" x14ac:dyDescent="0.3">
@@ -4476,71 +4571,73 @@
         <v>32</v>
       </c>
       <c r="F54" s="4"/>
-      <c r="G54" s="17" t="s">
+      <c r="G54" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="H54" s="18"/>
-      <c r="I54" s="18"/>
-      <c r="J54" s="18"/>
-      <c r="K54" s="18"/>
-      <c r="L54" s="18"/>
-      <c r="M54" s="19"/>
+      <c r="H54" s="19"/>
+      <c r="I54" s="19"/>
+      <c r="J54" s="19"/>
+      <c r="K54" s="19"/>
+      <c r="L54" s="19"/>
+      <c r="M54" s="20"/>
       <c r="N54" s="4"/>
       <c r="O54" s="4"/>
       <c r="P54" s="4" t="s">
-        <v>151</v>
+        <v>200</v>
       </c>
     </row>
     <row r="55" spans="3:16" x14ac:dyDescent="0.3">
       <c r="C55" s="2"/>
       <c r="D55" s="4" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="E55" s="4" t="s">
         <v>31</v>
       </c>
       <c r="F55" s="4"/>
-      <c r="G55" s="17" t="s">
-        <v>100</v>
-      </c>
-      <c r="H55" s="18"/>
-      <c r="I55" s="18"/>
-      <c r="J55" s="18"/>
-      <c r="K55" s="18"/>
-      <c r="L55" s="18"/>
-      <c r="M55" s="19"/>
+      <c r="G55" s="18" t="s">
+        <v>97</v>
+      </c>
+      <c r="H55" s="19"/>
+      <c r="I55" s="19"/>
+      <c r="J55" s="19"/>
+      <c r="K55" s="19"/>
+      <c r="L55" s="19"/>
+      <c r="M55" s="20"/>
       <c r="N55" s="4" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="O55" s="4"/>
-      <c r="P55" s="4" t="s">
-        <v>148</v>
+      <c r="P55" s="17" t="s">
+        <v>195</v>
       </c>
     </row>
     <row r="56" spans="3:16" x14ac:dyDescent="0.3">
       <c r="C56" s="2"/>
       <c r="D56" s="4" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="E56" s="5" t="s">
         <v>36</v>
       </c>
       <c r="F56" s="4"/>
-      <c r="G56" s="17" t="s">
-        <v>157</v>
-      </c>
-      <c r="H56" s="18"/>
-      <c r="I56" s="18"/>
-      <c r="J56" s="18"/>
-      <c r="K56" s="18"/>
-      <c r="L56" s="18"/>
-      <c r="M56" s="19"/>
+      <c r="G56" s="18" t="s">
+        <v>153</v>
+      </c>
+      <c r="H56" s="19"/>
+      <c r="I56" s="19"/>
+      <c r="J56" s="19"/>
+      <c r="K56" s="19"/>
+      <c r="L56" s="19"/>
+      <c r="M56" s="20"/>
       <c r="N56" s="4" t="s">
-        <v>181</v>
-      </c>
-      <c r="O56" s="4"/>
-      <c r="P56" s="4" t="s">
-        <v>151</v>
+        <v>196</v>
+      </c>
+      <c r="O56" s="4" t="s">
+        <v>197</v>
+      </c>
+      <c r="P56" s="17" t="s">
+        <v>198</v>
       </c>
     </row>
     <row r="57" spans="3:16" x14ac:dyDescent="0.3">
@@ -4548,53 +4645,53 @@
         <v>40</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
     </row>
     <row r="58" spans="3:16" x14ac:dyDescent="0.3">
       <c r="D58" s="1" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="60" spans="3:16" x14ac:dyDescent="0.3">
       <c r="C60" s="1" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
     </row>
     <row r="62" spans="3:16" x14ac:dyDescent="0.3">
       <c r="C62" s="1" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
     </row>
     <row r="63" spans="3:16" x14ac:dyDescent="0.3">
       <c r="D63" s="1" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
     </row>
     <row r="65" spans="2:16" x14ac:dyDescent="0.3">
       <c r="C65" s="1" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
     </row>
     <row r="66" spans="2:16" x14ac:dyDescent="0.3">
       <c r="D66" s="1" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
     </row>
     <row r="67" spans="2:16" x14ac:dyDescent="0.3">
       <c r="C67" s="1" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
     </row>
     <row r="68" spans="2:16" x14ac:dyDescent="0.3">
       <c r="D68" s="1" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
     </row>
     <row r="70" spans="2:16" x14ac:dyDescent="0.3">
@@ -4602,7 +4699,7 @@
         <v>50</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
     </row>
     <row r="71" spans="2:16" x14ac:dyDescent="0.3">
@@ -4631,10 +4728,10 @@
     </row>
     <row r="74" spans="2:16" x14ac:dyDescent="0.3">
       <c r="C74" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="D74" s="1" t="s">
         <v>105</v>
-      </c>
-      <c r="D74" s="1" t="s">
-        <v>108</v>
       </c>
     </row>
     <row r="75" spans="2:16" x14ac:dyDescent="0.3">
@@ -4653,15 +4750,15 @@
       <c r="F76" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="G76" s="20" t="s">
+      <c r="G76" s="21" t="s">
         <v>30</v>
       </c>
-      <c r="H76" s="21"/>
-      <c r="I76" s="21"/>
-      <c r="J76" s="21"/>
-      <c r="K76" s="21"/>
-      <c r="L76" s="21"/>
-      <c r="M76" s="22"/>
+      <c r="H76" s="22"/>
+      <c r="I76" s="22"/>
+      <c r="J76" s="22"/>
+      <c r="K76" s="22"/>
+      <c r="L76" s="22"/>
+      <c r="M76" s="23"/>
       <c r="N76" s="3" t="s">
         <v>35</v>
       </c>
@@ -4669,7 +4766,7 @@
         <v>41</v>
       </c>
       <c r="P76" s="4" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
     </row>
     <row r="77" spans="2:16" x14ac:dyDescent="0.3">
@@ -4681,43 +4778,43 @@
         <v>31</v>
       </c>
       <c r="F77" s="4"/>
-      <c r="G77" s="17" t="s">
-        <v>91</v>
-      </c>
-      <c r="H77" s="18"/>
-      <c r="I77" s="18"/>
-      <c r="J77" s="18"/>
-      <c r="K77" s="18"/>
-      <c r="L77" s="18"/>
-      <c r="M77" s="19"/>
+      <c r="G77" s="18" t="s">
+        <v>88</v>
+      </c>
+      <c r="H77" s="19"/>
+      <c r="I77" s="19"/>
+      <c r="J77" s="19"/>
+      <c r="K77" s="19"/>
+      <c r="L77" s="19"/>
+      <c r="M77" s="20"/>
       <c r="N77" s="4"/>
       <c r="O77" s="4"/>
       <c r="P77" s="4" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
     </row>
     <row r="78" spans="2:16" x14ac:dyDescent="0.3">
       <c r="C78" s="2"/>
       <c r="D78" s="4" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="E78" s="4" t="s">
         <v>31</v>
       </c>
       <c r="F78" s="4"/>
-      <c r="G78" s="17" t="s">
-        <v>155</v>
-      </c>
-      <c r="H78" s="18"/>
-      <c r="I78" s="18"/>
-      <c r="J78" s="18"/>
-      <c r="K78" s="18"/>
-      <c r="L78" s="18"/>
-      <c r="M78" s="19"/>
+      <c r="G78" s="18" t="s">
+        <v>151</v>
+      </c>
+      <c r="H78" s="19"/>
+      <c r="I78" s="19"/>
+      <c r="J78" s="19"/>
+      <c r="K78" s="19"/>
+      <c r="L78" s="19"/>
+      <c r="M78" s="20"/>
       <c r="N78" s="4"/>
       <c r="O78" s="4"/>
       <c r="P78" s="4" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
     </row>
     <row r="79" spans="2:16" x14ac:dyDescent="0.3">
@@ -4729,45 +4826,45 @@
         <v>36</v>
       </c>
       <c r="F79" s="4"/>
-      <c r="G79" s="17" t="s">
-        <v>154</v>
-      </c>
-      <c r="H79" s="18"/>
-      <c r="I79" s="18"/>
-      <c r="J79" s="18"/>
-      <c r="K79" s="18"/>
-      <c r="L79" s="18"/>
-      <c r="M79" s="19"/>
+      <c r="G79" s="18" t="s">
+        <v>150</v>
+      </c>
+      <c r="H79" s="19"/>
+      <c r="I79" s="19"/>
+      <c r="J79" s="19"/>
+      <c r="K79" s="19"/>
+      <c r="L79" s="19"/>
+      <c r="M79" s="20"/>
       <c r="N79" s="4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="O79" s="4"/>
       <c r="P79" s="4" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
     </row>
     <row r="80" spans="2:16" x14ac:dyDescent="0.3">
       <c r="C80" s="2"/>
       <c r="D80" s="4" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="E80" s="4" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="F80" s="4"/>
-      <c r="G80" s="17" t="s">
-        <v>94</v>
-      </c>
-      <c r="H80" s="18"/>
-      <c r="I80" s="18"/>
-      <c r="J80" s="18"/>
-      <c r="K80" s="18"/>
-      <c r="L80" s="18"/>
-      <c r="M80" s="19"/>
+      <c r="G80" s="18" t="s">
+        <v>91</v>
+      </c>
+      <c r="H80" s="19"/>
+      <c r="I80" s="19"/>
+      <c r="J80" s="19"/>
+      <c r="K80" s="19"/>
+      <c r="L80" s="19"/>
+      <c r="M80" s="20"/>
       <c r="N80" s="4"/>
       <c r="O80" s="4"/>
       <c r="P80" s="4" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
     </row>
     <row r="81" spans="3:16" x14ac:dyDescent="0.3">
@@ -4779,19 +4876,19 @@
         <v>32</v>
       </c>
       <c r="F81" s="4"/>
-      <c r="G81" s="17" t="s">
+      <c r="G81" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="H81" s="18"/>
-      <c r="I81" s="18"/>
-      <c r="J81" s="18"/>
-      <c r="K81" s="18"/>
-      <c r="L81" s="18"/>
-      <c r="M81" s="19"/>
+      <c r="H81" s="19"/>
+      <c r="I81" s="19"/>
+      <c r="J81" s="19"/>
+      <c r="K81" s="19"/>
+      <c r="L81" s="19"/>
+      <c r="M81" s="20"/>
       <c r="N81" s="4"/>
       <c r="O81" s="4"/>
       <c r="P81" s="4" t="s">
-        <v>151</v>
+        <v>200</v>
       </c>
     </row>
     <row r="82" spans="3:16" x14ac:dyDescent="0.3">
@@ -4829,61 +4926,61 @@
         <v>40</v>
       </c>
       <c r="D84" s="1" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
     </row>
     <row r="85" spans="3:16" x14ac:dyDescent="0.3">
       <c r="D85" s="1" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
     </row>
     <row r="87" spans="3:16" x14ac:dyDescent="0.3">
       <c r="C87" s="1" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="D87" s="1" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
     </row>
     <row r="89" spans="3:16" x14ac:dyDescent="0.3">
       <c r="C89" s="1" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="D89" s="1" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
     </row>
     <row r="90" spans="3:16" x14ac:dyDescent="0.3">
       <c r="D90" s="1" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
     </row>
     <row r="92" spans="3:16" x14ac:dyDescent="0.3">
       <c r="C92" s="1" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
     </row>
     <row r="93" spans="3:16" x14ac:dyDescent="0.3">
       <c r="D93" s="1" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
     </row>
     <row r="94" spans="3:16" x14ac:dyDescent="0.3">
       <c r="C94" s="1" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
     </row>
     <row r="95" spans="3:16" x14ac:dyDescent="0.3">
       <c r="D95" s="1" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
     </row>
     <row r="97" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B97" s="1" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
     </row>
     <row r="98" spans="2:16" x14ac:dyDescent="0.3">
@@ -4891,7 +4988,7 @@
         <v>23</v>
       </c>
       <c r="D98" s="1" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
     </row>
     <row r="99" spans="2:16" x14ac:dyDescent="0.3">
@@ -4912,10 +5009,10 @@
     </row>
     <row r="101" spans="2:16" x14ac:dyDescent="0.3">
       <c r="C101" s="2" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="D101" s="1" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
     </row>
     <row r="102" spans="2:16" x14ac:dyDescent="0.3">
@@ -4934,15 +5031,15 @@
       <c r="F103" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="G103" s="20" t="s">
+      <c r="G103" s="21" t="s">
         <v>30</v>
       </c>
-      <c r="H103" s="21"/>
-      <c r="I103" s="21"/>
-      <c r="J103" s="21"/>
-      <c r="K103" s="21"/>
-      <c r="L103" s="21"/>
-      <c r="M103" s="22"/>
+      <c r="H103" s="22"/>
+      <c r="I103" s="22"/>
+      <c r="J103" s="22"/>
+      <c r="K103" s="22"/>
+      <c r="L103" s="22"/>
+      <c r="M103" s="23"/>
       <c r="N103" s="3" t="s">
         <v>35</v>
       </c>
@@ -4950,7 +5047,7 @@
         <v>41</v>
       </c>
       <c r="P103" s="4" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
     </row>
     <row r="104" spans="2:16" x14ac:dyDescent="0.3">
@@ -4962,43 +5059,43 @@
         <v>31</v>
       </c>
       <c r="F104" s="4"/>
-      <c r="G104" s="17" t="s">
-        <v>166</v>
-      </c>
-      <c r="H104" s="18"/>
-      <c r="I104" s="18"/>
-      <c r="J104" s="18"/>
-      <c r="K104" s="18"/>
-      <c r="L104" s="18"/>
-      <c r="M104" s="19"/>
+      <c r="G104" s="18" t="s">
+        <v>162</v>
+      </c>
+      <c r="H104" s="19"/>
+      <c r="I104" s="19"/>
+      <c r="J104" s="19"/>
+      <c r="K104" s="19"/>
+      <c r="L104" s="19"/>
+      <c r="M104" s="20"/>
       <c r="N104" s="4"/>
       <c r="O104" s="4"/>
       <c r="P104" s="4" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
     </row>
     <row r="105" spans="2:16" x14ac:dyDescent="0.3">
       <c r="C105" s="2"/>
       <c r="D105" s="4" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="E105" s="4" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="F105" s="4"/>
-      <c r="G105" s="17" t="s">
-        <v>152</v>
-      </c>
-      <c r="H105" s="18"/>
-      <c r="I105" s="18"/>
-      <c r="J105" s="18"/>
-      <c r="K105" s="18"/>
-      <c r="L105" s="18"/>
-      <c r="M105" s="19"/>
+      <c r="G105" s="18" t="s">
+        <v>148</v>
+      </c>
+      <c r="H105" s="19"/>
+      <c r="I105" s="19"/>
+      <c r="J105" s="19"/>
+      <c r="K105" s="19"/>
+      <c r="L105" s="19"/>
+      <c r="M105" s="20"/>
       <c r="N105" s="4"/>
       <c r="O105" s="4"/>
       <c r="P105" s="4" t="s">
-        <v>151</v>
+        <v>199</v>
       </c>
     </row>
     <row r="106" spans="2:16" x14ac:dyDescent="0.3">
@@ -5010,15 +5107,15 @@
         <v>36</v>
       </c>
       <c r="F106" s="4"/>
-      <c r="G106" s="17" t="s">
-        <v>164</v>
-      </c>
-      <c r="H106" s="18"/>
-      <c r="I106" s="18"/>
-      <c r="J106" s="18"/>
-      <c r="K106" s="18"/>
-      <c r="L106" s="18"/>
-      <c r="M106" s="19"/>
+      <c r="G106" s="18" t="s">
+        <v>160</v>
+      </c>
+      <c r="H106" s="19"/>
+      <c r="I106" s="19"/>
+      <c r="J106" s="19"/>
+      <c r="K106" s="19"/>
+      <c r="L106" s="19"/>
+      <c r="M106" s="20"/>
       <c r="N106" s="4" t="s">
         <v>54</v>
       </c>
@@ -5026,31 +5123,31 @@
         <v>42</v>
       </c>
       <c r="P106" s="4" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
     </row>
     <row r="107" spans="2:16" x14ac:dyDescent="0.3">
       <c r="C107" s="2"/>
       <c r="D107" s="4" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="E107" s="4" t="s">
         <v>46</v>
       </c>
       <c r="F107" s="4"/>
-      <c r="G107" s="17" t="s">
-        <v>153</v>
-      </c>
-      <c r="H107" s="18"/>
-      <c r="I107" s="18"/>
-      <c r="J107" s="18"/>
-      <c r="K107" s="18"/>
-      <c r="L107" s="18"/>
-      <c r="M107" s="19"/>
+      <c r="G107" s="18" t="s">
+        <v>149</v>
+      </c>
+      <c r="H107" s="19"/>
+      <c r="I107" s="19"/>
+      <c r="J107" s="19"/>
+      <c r="K107" s="19"/>
+      <c r="L107" s="19"/>
+      <c r="M107" s="20"/>
       <c r="N107" s="4"/>
       <c r="O107" s="4"/>
       <c r="P107" s="4" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
     </row>
     <row r="108" spans="2:16" x14ac:dyDescent="0.3">
@@ -5062,19 +5159,19 @@
         <v>32</v>
       </c>
       <c r="F108" s="4"/>
-      <c r="G108" s="17" t="s">
+      <c r="G108" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="H108" s="18"/>
-      <c r="I108" s="18"/>
-      <c r="J108" s="18"/>
-      <c r="K108" s="18"/>
-      <c r="L108" s="18"/>
-      <c r="M108" s="19"/>
+      <c r="H108" s="19"/>
+      <c r="I108" s="19"/>
+      <c r="J108" s="19"/>
+      <c r="K108" s="19"/>
+      <c r="L108" s="19"/>
+      <c r="M108" s="20"/>
       <c r="N108" s="4"/>
       <c r="O108" s="4"/>
       <c r="P108" s="4" t="s">
-        <v>151</v>
+        <v>200</v>
       </c>
     </row>
     <row r="109" spans="2:16" x14ac:dyDescent="0.3">
@@ -5097,58 +5194,58 @@
         <v>40</v>
       </c>
       <c r="D110" s="1" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
     </row>
     <row r="112" spans="2:16" x14ac:dyDescent="0.3">
       <c r="C112" s="1" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="D112" s="1" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
     </row>
     <row r="114" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C114" s="1" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="D114" s="1" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
     </row>
     <row r="115" spans="3:4" x14ac:dyDescent="0.3">
       <c r="D115" s="1" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
     </row>
     <row r="116" spans="3:4" x14ac:dyDescent="0.3">
       <c r="D116" s="1" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
     </row>
     <row r="117" spans="3:4" x14ac:dyDescent="0.3">
       <c r="D117" s="1" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
     </row>
     <row r="119" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C119" s="1" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
     </row>
     <row r="120" spans="3:4" x14ac:dyDescent="0.3">
       <c r="D120" s="1" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
     </row>
     <row r="121" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C121" s="1" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
     </row>
     <row r="122" spans="3:4" x14ac:dyDescent="0.3">
       <c r="D122" s="1" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
     </row>
   </sheetData>

--- a/gd/Demo/Demo副本设计.xlsx
+++ b/gd/Demo/Demo副本设计.xlsx
@@ -13,12 +13,12 @@
     <sheet name="对局设计" sheetId="1" r:id="rId4"/>
     <sheet name="怪物设计" sheetId="3" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="144525" concurrentCalc="0"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="360" uniqueCount="208">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="364" uniqueCount="212">
   <si>
     <t>胜利条件</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -721,14 +721,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>进程1： 两只翅膀，眼罩，舌头，眼罩后穴位，共5个可打击点，其中眼罩不为弱点(需要把眼罩打掉才能照出眼罩后的穴位)</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>进程2：屁股上的两眼和嘴巴</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>啊哈哈，谁也伤不了我</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -830,6 +822,74 @@
   </si>
   <si>
     <t>更正怪物ID</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>进程1： 两只翅膀，眼罩，舌头，眼罩后穴位，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>身体</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，共6个可打击点，其中眼罩不为弱点(需要把眼罩打掉才能照出眼罩后的穴位)</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>进程2：屁股上的两眼和嘴巴，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>身体</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，共3个可打击点</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>为混沌兽增加身体打击点</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ver 0.5</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>qc</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>yh</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -837,7 +897,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -903,6 +963,13 @@
     </font>
     <font>
       <sz val="9"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="微软雅黑"/>
       <family val="2"/>
       <charset val="134"/>
@@ -3142,7 +3209,7 @@
   <dimension ref="A1:K22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H20" sqref="H20"/>
+      <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
@@ -3385,7 +3452,7 @@
       <c r="F15" s="11"/>
       <c r="G15" s="10"/>
       <c r="H15" s="10" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="I15" s="10"/>
       <c r="J15" s="10"/>
@@ -3400,7 +3467,7 @@
       <c r="F16" s="11"/>
       <c r="G16" s="10"/>
       <c r="H16" s="10" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="I16" s="10"/>
       <c r="J16" s="10"/>
@@ -3415,7 +3482,7 @@
       <c r="F17" s="11"/>
       <c r="G17" s="10"/>
       <c r="H17" s="10" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="I17" s="10"/>
       <c r="J17" s="10"/>
@@ -3430,7 +3497,7 @@
       <c r="F18" s="11"/>
       <c r="G18" s="10"/>
       <c r="H18" s="10" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="I18" s="10"/>
       <c r="J18" s="10"/>
@@ -3445,7 +3512,7 @@
       <c r="F19" s="11"/>
       <c r="G19" s="10"/>
       <c r="H19" s="10" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="I19" s="10"/>
       <c r="J19" s="10"/>
@@ -3453,13 +3520,23 @@
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20" s="9"/>
-      <c r="B20" s="10"/>
-      <c r="C20" s="14"/>
-      <c r="D20" s="11"/>
+      <c r="B20" s="10" t="s">
+        <v>209</v>
+      </c>
+      <c r="C20" s="14">
+        <v>42108</v>
+      </c>
+      <c r="D20" s="11" t="s">
+        <v>210</v>
+      </c>
       <c r="E20" s="15"/>
       <c r="F20" s="11"/>
-      <c r="G20" s="10"/>
-      <c r="H20" s="10"/>
+      <c r="G20" s="10" t="s">
+        <v>211</v>
+      </c>
+      <c r="H20" s="10" t="s">
+        <v>208</v>
+      </c>
       <c r="I20" s="10"/>
       <c r="J20" s="10"/>
       <c r="K20" s="16"/>
@@ -3593,26 +3670,26 @@
   <sheetData>
     <row r="2" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B2" s="1" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
     </row>
     <row r="3" spans="2:6" x14ac:dyDescent="0.3">
       <c r="C3" s="1" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="D3" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="F3" s="1" t="s">
         <v>190</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>191</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>192</v>
       </c>
     </row>
     <row r="4" spans="2:6" x14ac:dyDescent="0.3">
       <c r="C4" s="1" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="D4" s="1">
         <v>2</v>
@@ -3626,7 +3703,7 @@
     </row>
     <row r="5" spans="2:6" x14ac:dyDescent="0.3">
       <c r="C5" s="1" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="D5" s="1">
         <v>2</v>
@@ -3637,7 +3714,7 @@
         <v>0</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
     </row>
     <row r="8" spans="2:6" x14ac:dyDescent="0.3">
@@ -3650,7 +3727,7 @@
     </row>
     <row r="10" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B10" s="1" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
     </row>
     <row r="11" spans="2:6" x14ac:dyDescent="0.3">
@@ -3695,7 +3772,7 @@
         <v>13</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
     </row>
     <row r="18" spans="3:5" x14ac:dyDescent="0.3">
@@ -3708,7 +3785,7 @@
         <v>18</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
     </row>
     <row r="21" spans="3:5" x14ac:dyDescent="0.3">
@@ -3777,8 +3854,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:P122"/>
   <sheetViews>
-    <sheetView topLeftCell="A64" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F121" sqref="F121"/>
+    <sheetView topLeftCell="A67" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F85" sqref="F85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3985,7 +4062,7 @@
       <c r="N13" s="4"/>
       <c r="O13" s="4"/>
       <c r="P13" s="4" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
     </row>
     <row r="16" spans="2:16" x14ac:dyDescent="0.3">
@@ -3998,7 +4075,7 @@
         <v>23</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
     </row>
     <row r="18" spans="2:16" x14ac:dyDescent="0.3">
@@ -4181,7 +4258,7 @@
       <c r="N27" s="4"/>
       <c r="O27" s="4"/>
       <c r="P27" s="4" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
     </row>
     <row r="28" spans="2:16" x14ac:dyDescent="0.3">
@@ -4197,7 +4274,7 @@
         <v>23</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
     </row>
     <row r="31" spans="2:16" x14ac:dyDescent="0.3">
@@ -4380,7 +4457,7 @@
       <c r="N40" s="4"/>
       <c r="O40" s="4"/>
       <c r="P40" s="4" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
     </row>
     <row r="41" spans="2:16" x14ac:dyDescent="0.3">
@@ -4583,7 +4660,7 @@
       <c r="N54" s="4"/>
       <c r="O54" s="4"/>
       <c r="P54" s="4" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
     </row>
     <row r="55" spans="3:16" x14ac:dyDescent="0.3">
@@ -4609,7 +4686,7 @@
       </c>
       <c r="O55" s="4"/>
       <c r="P55" s="17" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
     </row>
     <row r="56" spans="3:16" x14ac:dyDescent="0.3">
@@ -4631,13 +4708,13 @@
       <c r="L56" s="19"/>
       <c r="M56" s="20"/>
       <c r="N56" s="4" t="s">
+        <v>194</v>
+      </c>
+      <c r="O56" s="4" t="s">
+        <v>195</v>
+      </c>
+      <c r="P56" s="17" t="s">
         <v>196</v>
-      </c>
-      <c r="O56" s="4" t="s">
-        <v>197</v>
-      </c>
-      <c r="P56" s="17" t="s">
-        <v>198</v>
       </c>
     </row>
     <row r="57" spans="3:16" x14ac:dyDescent="0.3">
@@ -4888,7 +4965,7 @@
       <c r="N81" s="4"/>
       <c r="O81" s="4"/>
       <c r="P81" s="4" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
     </row>
     <row r="82" spans="3:16" x14ac:dyDescent="0.3">
@@ -4947,12 +5024,12 @@
         <v>165</v>
       </c>
       <c r="D89" s="1" t="s">
-        <v>180</v>
+        <v>206</v>
       </c>
     </row>
     <row r="90" spans="3:16" x14ac:dyDescent="0.3">
       <c r="D90" s="1" t="s">
-        <v>181</v>
+        <v>207</v>
       </c>
     </row>
     <row r="92" spans="3:16" x14ac:dyDescent="0.3">
@@ -4962,7 +5039,7 @@
     </row>
     <row r="93" spans="3:16" x14ac:dyDescent="0.3">
       <c r="D93" s="1" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
     <row r="94" spans="3:16" x14ac:dyDescent="0.3">
@@ -4972,7 +5049,7 @@
     </row>
     <row r="95" spans="3:16" x14ac:dyDescent="0.3">
       <c r="D95" s="1" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
     <row r="97" spans="2:16" x14ac:dyDescent="0.3">
@@ -5095,7 +5172,7 @@
       <c r="N105" s="4"/>
       <c r="O105" s="4"/>
       <c r="P105" s="4" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
     </row>
     <row r="106" spans="2:16" x14ac:dyDescent="0.3">
@@ -5171,7 +5248,7 @@
       <c r="N108" s="4"/>
       <c r="O108" s="4"/>
       <c r="P108" s="4" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
     </row>
     <row r="109" spans="2:16" x14ac:dyDescent="0.3">
@@ -5250,12 +5327,22 @@
     </row>
   </sheetData>
   <mergeCells count="38">
-    <mergeCell ref="G40:M40"/>
-    <mergeCell ref="G35:M35"/>
-    <mergeCell ref="G36:M36"/>
-    <mergeCell ref="G37:M37"/>
-    <mergeCell ref="G38:M38"/>
-    <mergeCell ref="G39:M39"/>
+    <mergeCell ref="G107:M107"/>
+    <mergeCell ref="G108:M108"/>
+    <mergeCell ref="G103:M103"/>
+    <mergeCell ref="G104:M104"/>
+    <mergeCell ref="G105:M105"/>
+    <mergeCell ref="G106:M106"/>
+    <mergeCell ref="G81:M81"/>
+    <mergeCell ref="G76:M76"/>
+    <mergeCell ref="G77:M77"/>
+    <mergeCell ref="G78:M78"/>
+    <mergeCell ref="G56:M56"/>
+    <mergeCell ref="G52:M52"/>
+    <mergeCell ref="G53:M53"/>
+    <mergeCell ref="G54:M54"/>
+    <mergeCell ref="G79:M79"/>
+    <mergeCell ref="G80:M80"/>
     <mergeCell ref="G8:M8"/>
     <mergeCell ref="G9:M9"/>
     <mergeCell ref="G10:M10"/>
@@ -5272,22 +5359,12 @@
     <mergeCell ref="G27:M27"/>
     <mergeCell ref="G49:M49"/>
     <mergeCell ref="G51:M51"/>
-    <mergeCell ref="G52:M52"/>
-    <mergeCell ref="G53:M53"/>
-    <mergeCell ref="G54:M54"/>
-    <mergeCell ref="G79:M79"/>
-    <mergeCell ref="G80:M80"/>
-    <mergeCell ref="G81:M81"/>
-    <mergeCell ref="G76:M76"/>
-    <mergeCell ref="G77:M77"/>
-    <mergeCell ref="G78:M78"/>
-    <mergeCell ref="G56:M56"/>
-    <mergeCell ref="G107:M107"/>
-    <mergeCell ref="G108:M108"/>
-    <mergeCell ref="G103:M103"/>
-    <mergeCell ref="G104:M104"/>
-    <mergeCell ref="G105:M105"/>
-    <mergeCell ref="G106:M106"/>
+    <mergeCell ref="G40:M40"/>
+    <mergeCell ref="G35:M35"/>
+    <mergeCell ref="G36:M36"/>
+    <mergeCell ref="G37:M37"/>
+    <mergeCell ref="G38:M38"/>
+    <mergeCell ref="G39:M39"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/gd/Demo/Demo副本设计.xlsx
+++ b/gd/Demo/Demo副本设计.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="364" uniqueCount="212">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="368" uniqueCount="216">
   <si>
     <t>胜利条件</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -851,6 +851,22 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
+    <t>为混沌兽增加身体打击点</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ver 0.5</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>qc</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>yh</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
     <r>
       <t>进程2：屁股上的两眼和嘴巴，</t>
     </r>
@@ -872,16 +888,12 @@
         <family val="2"/>
         <charset val="134"/>
       </rPr>
-      <t>，共3个可打击点</t>
+      <t>，共4个可打击点</t>
     </r>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>为混沌兽增加身体打击点</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Ver 0.5</t>
+    <t>Ver 0.6</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -890,6 +902,10 @@
   </si>
   <si>
     <t>yh</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改混沌兽的可打击点数量（4改为5，无逻辑变化，更正错误）</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -3206,10 +3222,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K22"/>
+  <dimension ref="A1:K24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G21" sqref="G21"/>
+      <selection activeCell="H22" sqref="H22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
@@ -3521,21 +3537,21 @@
     <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20" s="9"/>
       <c r="B20" s="10" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C20" s="14">
         <v>42108</v>
       </c>
       <c r="D20" s="11" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="E20" s="15"/>
       <c r="F20" s="11"/>
       <c r="G20" s="10" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="H20" s="10" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="I20" s="10"/>
       <c r="J20" s="10"/>
@@ -3543,41 +3559,77 @@
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21" s="9"/>
-      <c r="B21" s="10"/>
-      <c r="C21" s="14"/>
-      <c r="D21" s="11"/>
+      <c r="B21" s="10" t="s">
+        <v>212</v>
+      </c>
+      <c r="C21" s="14">
+        <v>42110</v>
+      </c>
+      <c r="D21" s="11" t="s">
+        <v>213</v>
+      </c>
       <c r="E21" s="15"/>
       <c r="F21" s="11"/>
-      <c r="G21" s="10"/>
-      <c r="H21" s="10"/>
+      <c r="G21" s="10" t="s">
+        <v>214</v>
+      </c>
+      <c r="H21" s="10" t="s">
+        <v>215</v>
+      </c>
       <c r="I21" s="10"/>
       <c r="J21" s="10"/>
       <c r="K21" s="16"/>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A22" s="9" t="s">
-        <v>131</v>
-      </c>
-      <c r="B22" s="10" t="s">
-        <v>119</v>
-      </c>
-      <c r="C22" s="11" t="s">
-        <v>132</v>
-      </c>
-      <c r="D22" s="11" t="s">
-        <v>133</v>
-      </c>
-      <c r="E22" s="11" t="s">
-        <v>134</v>
-      </c>
+      <c r="A22" s="9"/>
+      <c r="B22" s="10"/>
+      <c r="C22" s="14"/>
+      <c r="D22" s="11"/>
+      <c r="E22" s="15"/>
       <c r="F22" s="11"/>
       <c r="G22" s="10"/>
-      <c r="H22" s="10" t="s">
-        <v>135</v>
-      </c>
+      <c r="H22" s="10"/>
       <c r="I22" s="10"/>
       <c r="J22" s="10"/>
       <c r="K22" s="16"/>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A23" s="9"/>
+      <c r="B23" s="10"/>
+      <c r="C23" s="14"/>
+      <c r="D23" s="11"/>
+      <c r="E23" s="15"/>
+      <c r="F23" s="11"/>
+      <c r="G23" s="10"/>
+      <c r="H23" s="10"/>
+      <c r="I23" s="10"/>
+      <c r="J23" s="10"/>
+      <c r="K23" s="16"/>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A24" s="9" t="s">
+        <v>131</v>
+      </c>
+      <c r="B24" s="10" t="s">
+        <v>119</v>
+      </c>
+      <c r="C24" s="11" t="s">
+        <v>132</v>
+      </c>
+      <c r="D24" s="11" t="s">
+        <v>133</v>
+      </c>
+      <c r="E24" s="11" t="s">
+        <v>134</v>
+      </c>
+      <c r="F24" s="11"/>
+      <c r="G24" s="10"/>
+      <c r="H24" s="10" t="s">
+        <v>135</v>
+      </c>
+      <c r="I24" s="10"/>
+      <c r="J24" s="10"/>
+      <c r="K24" s="16"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
@@ -3854,8 +3906,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:P122"/>
   <sheetViews>
-    <sheetView topLeftCell="A67" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F85" sqref="F85"/>
+    <sheetView topLeftCell="A52" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H66" sqref="H66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -5029,7 +5081,7 @@
     </row>
     <row r="90" spans="3:16" x14ac:dyDescent="0.3">
       <c r="D90" s="1" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
     </row>
     <row r="92" spans="3:16" x14ac:dyDescent="0.3">
@@ -5327,22 +5379,12 @@
     </row>
   </sheetData>
   <mergeCells count="38">
-    <mergeCell ref="G107:M107"/>
-    <mergeCell ref="G108:M108"/>
-    <mergeCell ref="G103:M103"/>
-    <mergeCell ref="G104:M104"/>
-    <mergeCell ref="G105:M105"/>
-    <mergeCell ref="G106:M106"/>
-    <mergeCell ref="G81:M81"/>
-    <mergeCell ref="G76:M76"/>
-    <mergeCell ref="G77:M77"/>
-    <mergeCell ref="G78:M78"/>
-    <mergeCell ref="G56:M56"/>
-    <mergeCell ref="G52:M52"/>
-    <mergeCell ref="G53:M53"/>
-    <mergeCell ref="G54:M54"/>
-    <mergeCell ref="G79:M79"/>
-    <mergeCell ref="G80:M80"/>
+    <mergeCell ref="G40:M40"/>
+    <mergeCell ref="G35:M35"/>
+    <mergeCell ref="G36:M36"/>
+    <mergeCell ref="G37:M37"/>
+    <mergeCell ref="G38:M38"/>
+    <mergeCell ref="G39:M39"/>
     <mergeCell ref="G8:M8"/>
     <mergeCell ref="G9:M9"/>
     <mergeCell ref="G10:M10"/>
@@ -5359,12 +5401,22 @@
     <mergeCell ref="G27:M27"/>
     <mergeCell ref="G49:M49"/>
     <mergeCell ref="G51:M51"/>
-    <mergeCell ref="G40:M40"/>
-    <mergeCell ref="G35:M35"/>
-    <mergeCell ref="G36:M36"/>
-    <mergeCell ref="G37:M37"/>
-    <mergeCell ref="G38:M38"/>
-    <mergeCell ref="G39:M39"/>
+    <mergeCell ref="G52:M52"/>
+    <mergeCell ref="G53:M53"/>
+    <mergeCell ref="G54:M54"/>
+    <mergeCell ref="G79:M79"/>
+    <mergeCell ref="G80:M80"/>
+    <mergeCell ref="G81:M81"/>
+    <mergeCell ref="G76:M76"/>
+    <mergeCell ref="G77:M77"/>
+    <mergeCell ref="G78:M78"/>
+    <mergeCell ref="G56:M56"/>
+    <mergeCell ref="G107:M107"/>
+    <mergeCell ref="G108:M108"/>
+    <mergeCell ref="G103:M103"/>
+    <mergeCell ref="G104:M104"/>
+    <mergeCell ref="G105:M105"/>
+    <mergeCell ref="G106:M106"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/gd/Demo/Demo副本设计.xlsx
+++ b/gd/Demo/Demo副本设计.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="368" uniqueCount="216">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="372" uniqueCount="220">
   <si>
     <t>胜利条件</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -822,32 +822,6 @@
   </si>
   <si>
     <t>更正怪物ID</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>进程1： 两只翅膀，眼罩，舌头，眼罩后穴位，</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>身体</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>，共6个可打击点，其中眼罩不为弱点(需要把眼罩打掉才能照出眼罩后的穴位)</t>
-    </r>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -908,12 +882,74 @@
     <t>修改混沌兽的可打击点数量（4改为5，无逻辑变化，更正错误）</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
+  <si>
+    <r>
+      <t>进程1： 两只翅膀，眼罩，舌头，眼罩后穴位，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>身体</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，共6个可打击点，其中眼罩</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF3B0FF7"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>和身体</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>不为弱点(需要把眼罩打掉才能照出眼罩后的穴位)</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>补充混沌兽身体不为弱点的说明</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ver 0.7</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>qc</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>yh</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -986,6 +1022,13 @@
     <font>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3B0FF7"/>
       <name val="微软雅黑"/>
       <family val="2"/>
       <charset val="134"/>
@@ -3222,10 +3265,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K24"/>
+  <dimension ref="A1:K26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H22" sqref="H22"/>
+      <selection activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
@@ -3537,21 +3580,21 @@
     <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20" s="9"/>
       <c r="B20" s="10" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C20" s="14">
         <v>42108</v>
       </c>
       <c r="D20" s="11" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="E20" s="15"/>
       <c r="F20" s="11"/>
       <c r="G20" s="10" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="H20" s="10" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="I20" s="10"/>
       <c r="J20" s="10"/>
@@ -3560,21 +3603,21 @@
     <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21" s="9"/>
       <c r="B21" s="10" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C21" s="14">
         <v>42110</v>
       </c>
       <c r="D21" s="11" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="E21" s="15"/>
       <c r="F21" s="11"/>
       <c r="G21" s="10" t="s">
+        <v>213</v>
+      </c>
+      <c r="H21" s="10" t="s">
         <v>214</v>
-      </c>
-      <c r="H21" s="10" t="s">
-        <v>215</v>
       </c>
       <c r="I21" s="10"/>
       <c r="J21" s="10"/>
@@ -3582,13 +3625,23 @@
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22" s="9"/>
-      <c r="B22" s="10"/>
-      <c r="C22" s="14"/>
-      <c r="D22" s="11"/>
+      <c r="B22" s="10" t="s">
+        <v>217</v>
+      </c>
+      <c r="C22" s="14">
+        <v>42115</v>
+      </c>
+      <c r="D22" s="11" t="s">
+        <v>218</v>
+      </c>
       <c r="E22" s="15"/>
       <c r="F22" s="11"/>
-      <c r="G22" s="10"/>
-      <c r="H22" s="10"/>
+      <c r="G22" s="10" t="s">
+        <v>219</v>
+      </c>
+      <c r="H22" s="10" t="s">
+        <v>216</v>
+      </c>
       <c r="I22" s="10"/>
       <c r="J22" s="10"/>
       <c r="K22" s="16"/>
@@ -3607,29 +3660,55 @@
       <c r="K23" s="16"/>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A24" s="9" t="s">
-        <v>131</v>
-      </c>
-      <c r="B24" s="10" t="s">
-        <v>119</v>
-      </c>
-      <c r="C24" s="11" t="s">
-        <v>132</v>
-      </c>
-      <c r="D24" s="11" t="s">
-        <v>133</v>
-      </c>
-      <c r="E24" s="11" t="s">
-        <v>134</v>
-      </c>
+      <c r="A24" s="9"/>
+      <c r="B24" s="10"/>
+      <c r="C24" s="14"/>
+      <c r="D24" s="11"/>
+      <c r="E24" s="15"/>
       <c r="F24" s="11"/>
       <c r="G24" s="10"/>
-      <c r="H24" s="10" t="s">
-        <v>135</v>
-      </c>
+      <c r="H24" s="10"/>
       <c r="I24" s="10"/>
       <c r="J24" s="10"/>
       <c r="K24" s="16"/>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A25" s="9"/>
+      <c r="B25" s="10"/>
+      <c r="C25" s="14"/>
+      <c r="D25" s="11"/>
+      <c r="E25" s="15"/>
+      <c r="F25" s="11"/>
+      <c r="G25" s="10"/>
+      <c r="H25" s="10"/>
+      <c r="I25" s="10"/>
+      <c r="J25" s="10"/>
+      <c r="K25" s="16"/>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A26" s="9" t="s">
+        <v>131</v>
+      </c>
+      <c r="B26" s="10" t="s">
+        <v>119</v>
+      </c>
+      <c r="C26" s="11" t="s">
+        <v>132</v>
+      </c>
+      <c r="D26" s="11" t="s">
+        <v>133</v>
+      </c>
+      <c r="E26" s="11" t="s">
+        <v>134</v>
+      </c>
+      <c r="F26" s="11"/>
+      <c r="G26" s="10"/>
+      <c r="H26" s="10" t="s">
+        <v>135</v>
+      </c>
+      <c r="I26" s="10"/>
+      <c r="J26" s="10"/>
+      <c r="K26" s="16"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
@@ -3906,8 +3985,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:P122"/>
   <sheetViews>
-    <sheetView topLeftCell="A52" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H66" sqref="H66"/>
+    <sheetView topLeftCell="A64" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J90" sqref="J90"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -5076,12 +5155,12 @@
         <v>165</v>
       </c>
       <c r="D89" s="1" t="s">
-        <v>206</v>
+        <v>215</v>
       </c>
     </row>
     <row r="90" spans="3:16" x14ac:dyDescent="0.3">
       <c r="D90" s="1" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="92" spans="3:16" x14ac:dyDescent="0.3">
@@ -5379,12 +5458,22 @@
     </row>
   </sheetData>
   <mergeCells count="38">
-    <mergeCell ref="G40:M40"/>
-    <mergeCell ref="G35:M35"/>
-    <mergeCell ref="G36:M36"/>
-    <mergeCell ref="G37:M37"/>
-    <mergeCell ref="G38:M38"/>
-    <mergeCell ref="G39:M39"/>
+    <mergeCell ref="G107:M107"/>
+    <mergeCell ref="G108:M108"/>
+    <mergeCell ref="G103:M103"/>
+    <mergeCell ref="G104:M104"/>
+    <mergeCell ref="G105:M105"/>
+    <mergeCell ref="G106:M106"/>
+    <mergeCell ref="G81:M81"/>
+    <mergeCell ref="G76:M76"/>
+    <mergeCell ref="G77:M77"/>
+    <mergeCell ref="G78:M78"/>
+    <mergeCell ref="G56:M56"/>
+    <mergeCell ref="G52:M52"/>
+    <mergeCell ref="G53:M53"/>
+    <mergeCell ref="G54:M54"/>
+    <mergeCell ref="G79:M79"/>
+    <mergeCell ref="G80:M80"/>
     <mergeCell ref="G8:M8"/>
     <mergeCell ref="G9:M9"/>
     <mergeCell ref="G10:M10"/>
@@ -5401,24 +5490,15 @@
     <mergeCell ref="G27:M27"/>
     <mergeCell ref="G49:M49"/>
     <mergeCell ref="G51:M51"/>
-    <mergeCell ref="G52:M52"/>
-    <mergeCell ref="G53:M53"/>
-    <mergeCell ref="G54:M54"/>
-    <mergeCell ref="G79:M79"/>
-    <mergeCell ref="G80:M80"/>
-    <mergeCell ref="G81:M81"/>
-    <mergeCell ref="G76:M76"/>
-    <mergeCell ref="G77:M77"/>
-    <mergeCell ref="G78:M78"/>
-    <mergeCell ref="G56:M56"/>
-    <mergeCell ref="G107:M107"/>
-    <mergeCell ref="G108:M108"/>
-    <mergeCell ref="G103:M103"/>
-    <mergeCell ref="G104:M104"/>
-    <mergeCell ref="G105:M105"/>
-    <mergeCell ref="G106:M106"/>
+    <mergeCell ref="G40:M40"/>
+    <mergeCell ref="G35:M35"/>
+    <mergeCell ref="G36:M36"/>
+    <mergeCell ref="G37:M37"/>
+    <mergeCell ref="G38:M38"/>
+    <mergeCell ref="G39:M39"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>